--- a/Preprocessed Data/cardiovascular death/test_b.xlsx
+++ b/Preprocessed Data/cardiovascular death/test_b.xlsx
@@ -855,25 +855,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1687360906634905</v>
+        <v>0.04</v>
       </c>
       <c r="D2">
-        <v>-0.856806238919586</v>
+        <v>-1.189189189189187</v>
       </c>
       <c r="E2">
-        <v>-0.5125088396989712</v>
+        <v>-0.5894736842105263</v>
       </c>
       <c r="F2">
-        <v>-0.1238217280918703</v>
+        <v>-0.1114581951941736</v>
       </c>
       <c r="G2">
-        <v>-0.8065329340905237</v>
+        <v>-0.8363636363636365</v>
       </c>
       <c r="H2">
-        <v>0.2349126175228489</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="I2">
-        <v>0.1243637821815259</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -897,16 +897,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>-0.1111111111111111</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="R2">
-        <v>-0.1042420966749279</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="S2">
-        <v>0.4925882437478113</v>
+        <v>0.7796610169491526</v>
       </c>
       <c r="T2">
-        <v>0.3942998706265178</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -963,88 +963,88 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.05108168575405655</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-0.2241277687194732</v>
+        <v>-0.1253405994550411</v>
       </c>
       <c r="AO2">
-        <v>-0.7007494052001352</v>
+        <v>-0.6362584151689211</v>
       </c>
       <c r="AP2">
-        <v>0.4632113416555895</v>
+        <v>0.4423076923076916</v>
       </c>
       <c r="AQ2">
-        <v>1.59967822096585</v>
+        <v>1.58955223880597</v>
       </c>
       <c r="AR2">
-        <v>-2.305878753445319</v>
+        <v>-1.893333333333333</v>
       </c>
       <c r="AS2">
-        <v>-0.1559058195542941</v>
+        <v>0.09514370664023798</v>
       </c>
       <c r="AT2">
-        <v>-2.024817897760293</v>
+        <v>-1.921951219512191</v>
       </c>
       <c r="AU2">
-        <v>0.7174713613795826</v>
+        <v>1.067307692307694</v>
       </c>
       <c r="AV2">
-        <v>-1.393549986642251</v>
+        <v>-1.810128441465749</v>
       </c>
       <c r="AW2">
-        <v>-0.08360840711281216</v>
+        <v>0.06260296540362442</v>
       </c>
       <c r="AX2">
-        <v>-0.2509968011968875</v>
+        <v>-0.2625182304326689</v>
       </c>
       <c r="AY2">
-        <v>-0.2361572040957563</v>
+        <v>-0.01398601398601394</v>
       </c>
       <c r="AZ2">
-        <v>-0.3682017131445854</v>
+        <v>-0.2105263157894731</v>
       </c>
       <c r="BA2">
-        <v>-0.6164966495438116</v>
+        <v>-0.5166666666666667</v>
       </c>
       <c r="BB2">
-        <v>-0.2772283321237428</v>
+        <v>-0.2395396500410621</v>
       </c>
       <c r="BC2">
-        <v>-0.9193860107744163</v>
+        <v>-0.8695652173913041</v>
       </c>
       <c r="BD2">
-        <v>-0.3898504991298449</v>
+        <v>-0.2291666666666667</v>
       </c>
       <c r="BE2">
-        <v>-0.2491916398152877</v>
+        <v>0.07714376374454604</v>
       </c>
       <c r="BF2">
-        <v>-0.70537910871051</v>
+        <v>-0.816118020266787</v>
       </c>
       <c r="BG2">
-        <v>0.02174479864505993</v>
+        <v>-0.09713618853287843</v>
       </c>
       <c r="BH2">
-        <v>-0.6054889503715015</v>
+        <v>-0.5</v>
       </c>
       <c r="BI2">
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>-0.7561133922908736</v>
+        <v>-0.6381514257620448</v>
       </c>
       <c r="BK2">
-        <v>-0.2144266078969994</v>
+        <v>-0.1354064850724009</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="BM2">
-        <v>0.3411910382900431</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BN2">
-        <v>0.6681736892856269</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BO2">
         <v>1</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>-0.5144831177088713</v>
+        <v>-0.5</v>
       </c>
       <c r="BS2">
-        <v>0.03450589888621985</v>
+        <v>0.08319327174114673</v>
       </c>
       <c r="BT2">
-        <v>0.00604589237922588</v>
+        <v>0</v>
       </c>
       <c r="BU2">
         <v>1</v>
@@ -1071,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="BW2">
-        <v>-0.337117032855853</v>
+        <v>-0.2952958890359084</v>
       </c>
       <c r="BX2">
-        <v>1.408142463915075</v>
+        <v>2.400084779176316</v>
       </c>
       <c r="BY2">
-        <v>1.043378786552438</v>
+        <v>1.269254984260231</v>
       </c>
       <c r="BZ2">
-        <v>0.32695587294534</v>
+        <v>0.6580388226936099</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -1094,25 +1094,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.372663048418851</v>
+        <v>1.64</v>
       </c>
       <c r="D3">
-        <v>0.5712041592797253</v>
+        <v>0.4324324324324327</v>
       </c>
       <c r="E3">
-        <v>1.127519447337737</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="F3">
-        <v>1.029160082119563</v>
+        <v>0.7967026903736438</v>
       </c>
       <c r="G3">
-        <v>0.9547485751936617</v>
+        <v>0.7636363636363638</v>
       </c>
       <c r="H3">
-        <v>0.4362662896852909</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="I3">
-        <v>-0.3973753482532568</v>
+        <v>-0.1616161616161616</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1136,16 +1136,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.6222222222222222</v>
+        <v>1.132352941176471</v>
       </c>
       <c r="R3">
-        <v>0.6254525800495674</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="S3">
-        <v>0.07777709111807547</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1202,88 +1202,88 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.2554084287702828</v>
+        <v>-0.1904761904761905</v>
       </c>
       <c r="AN3">
-        <v>0.5904353923435839</v>
+        <v>0.6212534059945503</v>
       </c>
       <c r="AO3">
-        <v>0.2860679206002414</v>
+        <v>0.3831968377493671</v>
       </c>
       <c r="AP3">
-        <v>1.276609758086346</v>
+        <v>1.096153846153846</v>
       </c>
       <c r="AQ3">
-        <v>1.183011554299184</v>
+        <v>1.216417910447761</v>
       </c>
       <c r="AR3">
-        <v>-0.5841559508728141</v>
+        <v>-0.4</v>
       </c>
       <c r="AS3">
-        <v>-0.08402672504732965</v>
+        <v>0.2101090188305254</v>
       </c>
       <c r="AT3">
-        <v>0.8464974722547735</v>
+        <v>0.8097560975609756</v>
       </c>
       <c r="AU3">
-        <v>1.248097576104879</v>
+        <v>1.7724358974359</v>
       </c>
       <c r="AV3">
-        <v>-1.352948879500929</v>
+        <v>-1.761935670381412</v>
       </c>
       <c r="AW3">
-        <v>-0.2119127127068949</v>
+        <v>-0.1131246567819879</v>
       </c>
       <c r="AX3">
-        <v>0.01998165109501588</v>
+        <v>0.08750607681088964</v>
       </c>
       <c r="AY3">
-        <v>2.279815751330766</v>
+        <v>2.237762237762238</v>
       </c>
       <c r="AZ3">
-        <v>1.104605139433761</v>
+        <v>1.473684210526317</v>
       </c>
       <c r="BA3">
-        <v>1.018278590874852</v>
+        <v>1.25</v>
       </c>
       <c r="BB3">
-        <v>0.5502660208792504</v>
+        <v>0.65090783543371</v>
       </c>
       <c r="BC3">
-        <v>0.595200664431234</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="BD3">
-        <v>0.9134912195326247</v>
+        <v>1.354166666666667</v>
       </c>
       <c r="BE3">
-        <v>0.5735891272367115</v>
+        <v>1.187178496569531</v>
       </c>
       <c r="BF3">
-        <v>0.2565014940765491</v>
+        <v>0.2553105511617844</v>
       </c>
       <c r="BG3">
-        <v>-0.6066076413315927</v>
+        <v>-0.8920216397332341</v>
       </c>
       <c r="BH3">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI3">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ3">
-        <v>1.30220002266042</v>
+        <v>1.340216322517207</v>
       </c>
       <c r="BK3">
-        <v>0.6876439494627939</v>
+        <v>0.8003557392804281</v>
       </c>
       <c r="BL3">
-        <v>0.8452425517293739</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="BM3">
-        <v>1.023573114870128</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BN3">
-        <v>2.004521067856879</v>
+        <v>1.999999999999998</v>
       </c>
       <c r="BO3">
         <v>1</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>-0.2644831177088713</v>
+        <v>-0.25</v>
       </c>
       <c r="BS3">
-        <v>4.40012959350891</v>
+        <v>3.785293864222176</v>
       </c>
       <c r="BT3">
-        <v>-1.933348047014714</v>
+        <v>-1.884440168482107</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1310,16 +1310,16 @@
         <v>1</v>
       </c>
       <c r="BW3">
-        <v>0.0871748696230893</v>
+        <v>0.118629374458183</v>
       </c>
       <c r="BX3">
-        <v>-0.1604573618297056</v>
+        <v>-0.1330060201075845</v>
       </c>
       <c r="BY3">
-        <v>0.5631149908225852</v>
+        <v>0.7157397691500524</v>
       </c>
       <c r="BZ3">
-        <v>2.299054121364601</v>
+        <v>3.132808375764528</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.1687360906634905</v>
+        <v>0.04</v>
       </c>
       <c r="D4">
-        <v>-0.1904013864265751</v>
+        <v>-0.4324324324324327</v>
       </c>
       <c r="E4">
-        <v>0.9225159114581482</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="F4">
-        <v>1.378251978888315</v>
+        <v>1.071669392628836</v>
       </c>
       <c r="G4">
-        <v>0.5944864482946243</v>
+        <v>0.4363636363636369</v>
       </c>
       <c r="H4">
-        <v>0.3355894536040699</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="I4">
-        <v>0.1678420430510911</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>-0.1333333333333333</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="R4">
-        <v>-0.2084841933498558</v>
+        <v>-0.131578947368421</v>
       </c>
       <c r="S4">
-        <v>-0.3888854555903773</v>
+        <v>-0.3728813559322034</v>
       </c>
       <c r="T4">
-        <v>-0.3639691113475546</v>
+        <v>-0.2954545454545454</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1441,88 +1441,88 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.05108168575405655</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.6498925573846828</v>
+        <v>0.6757493188010896</v>
       </c>
       <c r="AO4">
-        <v>0.4593259243667197</v>
+        <v>0.5621851645976161</v>
       </c>
       <c r="AP4">
-        <v>0.4632113416555895</v>
+        <v>0.4423076923076916</v>
       </c>
       <c r="AQ4">
-        <v>1.333011554299183</v>
+        <v>1.350746268656716</v>
       </c>
       <c r="AR4">
-        <v>-0.9530965514240651</v>
+        <v>-0.72</v>
       </c>
       <c r="AS4">
-        <v>-0.5128227026233586</v>
+        <v>-0.4757185332011892</v>
       </c>
       <c r="AT4">
-        <v>1.56432631475854</v>
+        <v>1.492682926829267</v>
       </c>
       <c r="AU4">
-        <v>0.6692326145863738</v>
+        <v>1.00320512820513</v>
       </c>
       <c r="AV4">
-        <v>-0.5815278438158147</v>
+        <v>-0.8462730197790024</v>
       </c>
       <c r="AW4">
-        <v>-0.4364452474965397</v>
+        <v>-0.4206479956068095</v>
       </c>
       <c r="AX4">
-        <v>-0.3463410714477423</v>
+        <v>-0.3856749311294766</v>
       </c>
       <c r="AY4">
-        <v>-0.7362263629382948</v>
+        <v>-0.4615384615384616</v>
       </c>
       <c r="AZ4">
-        <v>0.3682017131445871</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="BA4">
-        <v>0.2471581944509543</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="BB4">
-        <v>-0.05013401720186919</v>
+        <v>0.004831276423818518</v>
       </c>
       <c r="BC4">
-        <v>0.182131571193329</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="BD4">
-        <v>0.3990142253237551</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="BE4">
-        <v>0.1894706904837835</v>
+        <v>0.6689544162450576</v>
       </c>
       <c r="BF4">
-        <v>-0.3847522411148236</v>
+        <v>-0.4589751631239299</v>
       </c>
       <c r="BG4">
-        <v>-0.5436736773904901</v>
+        <v>-0.8124082108031117</v>
       </c>
       <c r="BH4">
-        <v>0.4831757476776143</v>
+        <v>0.5</v>
       </c>
       <c r="BI4">
         <v>-0.9999999999999994</v>
       </c>
       <c r="BJ4">
-        <v>0.05616337285392061</v>
+        <v>0.1425762045231071</v>
       </c>
       <c r="BK4">
-        <v>-0.1774565030871718</v>
+        <v>-0.09705557423826855</v>
       </c>
       <c r="BL4">
-        <v>0.8452425517293739</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="BM4">
-        <v>-1.023573114870128</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN4">
-        <v>-0.6681736892856269</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BO4">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.2355168822911287</v>
+        <v>0.25</v>
       </c>
       <c r="BS4">
-        <v>-0.1617019076136763</v>
+        <v>-0.08319327174114673</v>
       </c>
       <c r="BT4">
-        <v>0.1676620539953875</v>
+        <v>0.1570366807068422</v>
       </c>
       <c r="BU4">
         <v>1</v>
@@ -1549,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="BW4">
-        <v>-0.5451472778102551</v>
+        <v>-0.4982433727243694</v>
       </c>
       <c r="BX4">
-        <v>-0.3592374980125015</v>
+        <v>-0.4540108588056656</v>
       </c>
       <c r="BY4">
-        <v>-0.1401641921376508</v>
+        <v>-0.0948058761804827</v>
       </c>
       <c r="BZ4">
-        <v>-0.7173766243807186</v>
+        <v>-0.6524852699760342</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.7852957462964271</v>
+        <v>-0.6</v>
       </c>
       <c r="D5">
-        <v>1.523211091412601</v>
+        <v>1.513513513513514</v>
       </c>
       <c r="E5">
-        <v>2.050035358795885</v>
+        <v>1.515789473684211</v>
       </c>
       <c r="F5">
-        <v>1.371219284693263</v>
+        <v>1.066130000999635</v>
       </c>
       <c r="G5">
-        <v>1.955476705468767</v>
+        <v>1.672727272727273</v>
       </c>
       <c r="H5">
-        <v>0.8389736340101749</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="I5">
-        <v>-0.7017231743402133</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1614,16 +1614,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>-0.8</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>-0.3752715480297404</v>
+        <v>-0.5526315789473685</v>
       </c>
       <c r="S5">
-        <v>-0.8036966082201132</v>
+        <v>-0.9152542372881356</v>
       </c>
       <c r="T5">
-        <v>-0.6066151855792576</v>
+        <v>-0.6590909090909089</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1680,85 +1680,85 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.4767624003711946</v>
+        <v>-0.3968253968253968</v>
       </c>
       <c r="AN5">
-        <v>0.1504523710394508</v>
+        <v>0.2179836512261578</v>
       </c>
       <c r="AO5">
-        <v>0.3161997473422377</v>
+        <v>0.4143252424186278</v>
       </c>
       <c r="AP5">
-        <v>-1.689902113602292</v>
+        <v>-1.28846153846154</v>
       </c>
       <c r="AQ5">
-        <v>0.59967822096585</v>
+        <v>0.6940298507462686</v>
       </c>
       <c r="AR5">
-        <v>0.89160645133219</v>
+        <v>0.88</v>
       </c>
       <c r="AS5">
-        <v>-0.05180506199248356</v>
+        <v>0.2616451932606543</v>
       </c>
       <c r="AT5">
-        <v>0.8054786812545577</v>
+        <v>0.7707317073170726</v>
       </c>
       <c r="AU5">
-        <v>-0.05434858731175721</v>
+        <v>0.04166666666666709</v>
       </c>
       <c r="AV5">
-        <v>0.3928987275759086</v>
+        <v>0.310353486245094</v>
       </c>
       <c r="AW5">
-        <v>-0.3241789801017173</v>
+        <v>-0.2668863261943987</v>
       </c>
       <c r="AX5">
-        <v>-0.3915041468297263</v>
+        <v>-0.4440123156700697</v>
       </c>
       <c r="AY5">
-        <v>-0.8612436526489294</v>
+        <v>-0.5734265734265734</v>
       </c>
       <c r="AZ5">
-        <v>0.5523025697168814</v>
+        <v>0.8421052631578961</v>
       </c>
       <c r="BA5">
-        <v>0.4939167213066017</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="BB5">
-        <v>-0.4280040658013802</v>
+        <v>-0.4017859208906959</v>
       </c>
       <c r="BC5">
-        <v>0.04444187344736072</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="BD5">
-        <v>0.02173109623725075</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="BE5">
-        <v>-0.473224734104221</v>
+        <v>-0.2251050562588681</v>
       </c>
       <c r="BF5">
-        <v>0.8336298557487846</v>
+        <v>0.8981676940189273</v>
       </c>
       <c r="BG5">
-        <v>0.3054911211750051</v>
+        <v>0.2618117668837308</v>
       </c>
       <c r="BH5">
-        <v>0.4831757476776143</v>
+        <v>0.5</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.807468229683061</v>
+        <v>0.8647000983284171</v>
       </c>
       <c r="BK5">
-        <v>-0.1785656062314666</v>
+        <v>-0.09820610156329257</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="BM5">
-        <v>-0.3411910382900431</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN5">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>-0.5144831177088713</v>
+        <v>-0.5</v>
       </c>
       <c r="BS5">
-        <v>-1.28989679498808</v>
+        <v>-1.039915896764334</v>
       </c>
       <c r="BT5">
-        <v>1.945439831773165</v>
+        <v>1.884440168482107</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -1788,16 +1788,16 @@
         <v>1</v>
       </c>
       <c r="BW5">
-        <v>-0.4560983600060326</v>
+        <v>-0.4113701692749922</v>
       </c>
       <c r="BX5">
-        <v>-0.3611448213700999</v>
+        <v>-0.45709094537019</v>
       </c>
       <c r="BY5">
-        <v>-0.01547769578655451</v>
+        <v>0.04889821615949629</v>
       </c>
       <c r="BZ5">
-        <v>-0.1095907581014588</v>
+        <v>0.1102201164621836</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7561033927859142</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.2856020796398627</v>
+        <v>-0.5405405405405409</v>
       </c>
       <c r="E6">
-        <v>-0.5125088396989712</v>
+        <v>-0.5894736842105263</v>
       </c>
       <c r="F6">
-        <v>-0.4947381387076287</v>
+        <v>-0.4036152552215748</v>
       </c>
       <c r="G6">
-        <v>-0.686445558457511</v>
+        <v>-0.7272727272727273</v>
       </c>
       <c r="H6">
-        <v>0.100676836081221</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="I6">
-        <v>0.3852333473989172</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1853,16 +1853,16 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>0.8444444444444444</v>
+        <v>1.426470588235294</v>
       </c>
       <c r="R6">
-        <v>1.250905160099135</v>
+        <v>3.552631578947369</v>
       </c>
       <c r="S6">
-        <v>0.9073993963775472</v>
+        <v>1.322033898305085</v>
       </c>
       <c r="T6">
-        <v>1.213230371158516</v>
+        <v>2.068181818181818</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1919,88 +1919,88 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.2213539716009117</v>
+        <v>-0.1587301587301587</v>
       </c>
       <c r="AN6">
-        <v>-0.6882150078606256</v>
+        <v>-0.5507032567795518</v>
       </c>
       <c r="AO6">
-        <v>-0.9986394599037495</v>
+        <v>-0.944000864677908</v>
       </c>
       <c r="AP6">
-        <v>0.01834126723049767</v>
+        <v>0.08470115995115733</v>
       </c>
       <c r="AQ6">
-        <v>1.536256924669553</v>
+        <v>1.532757048092868</v>
       </c>
       <c r="AR6">
-        <v>0.7071361510565645</v>
+        <v>0.72</v>
       </c>
       <c r="AS6">
-        <v>0.2654543896244629</v>
+        <v>0.7690782953419232</v>
       </c>
       <c r="AT6">
-        <v>0.5798753307533751</v>
+        <v>0.5560975609756107</v>
       </c>
       <c r="AU6">
-        <v>1.267393074822162</v>
+        <v>1.798076923076926</v>
       </c>
       <c r="AV6">
-        <v>-1.231145558076963</v>
+        <v>-1.6173573571284</v>
       </c>
       <c r="AW6">
-        <v>-0.6096560600485514</v>
+        <v>-0.6578802855573862</v>
       </c>
       <c r="AX6">
-        <v>-0.4376708461090876</v>
+        <v>-0.5036460865337871</v>
       </c>
       <c r="AY6">
-        <v>-0.9237522975042468</v>
+        <v>-0.6293706293706295</v>
       </c>
       <c r="AZ6">
-        <v>1.472806852578348</v>
+        <v>1.894736842105265</v>
       </c>
       <c r="BA6">
-        <v>1.326726749444411</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="BB6">
-        <v>2.065160219542328</v>
+        <v>2.281050355518047</v>
       </c>
       <c r="BC6">
-        <v>1.283649153161075</v>
+        <v>1.913043478260869</v>
       </c>
       <c r="BD6">
-        <v>1.668057477705633</v>
+        <v>2.270833333333333</v>
       </c>
       <c r="BE6">
-        <v>2.105253538367283</v>
+        <v>3.253586418911511</v>
       </c>
       <c r="BF6">
-        <v>-0.5130029881530982</v>
+        <v>-0.6018323059810727</v>
       </c>
       <c r="BG6">
-        <v>-1.367429905407799</v>
+        <v>-1.854485553593364</v>
       </c>
       <c r="BH6">
-        <v>-0.2426007176884632</v>
+        <v>-0.1666666666666669</v>
       </c>
       <c r="BI6">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ6">
-        <v>1.300153985468619</v>
+        <v>1.338249754178957</v>
       </c>
       <c r="BK6">
-        <v>1.804141114719586</v>
+        <v>1.958553246471224</v>
       </c>
       <c r="BL6">
-        <v>1.056553189661719</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="BM6">
-        <v>2.729528306320342</v>
+        <v>2.666666666666664</v>
       </c>
       <c r="BN6">
-        <v>2.004521067856879</v>
+        <v>1.999999999999998</v>
       </c>
       <c r="BO6">
         <v>1</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>1.235516882291129</v>
+        <v>1.25</v>
       </c>
       <c r="BS6">
-        <v>2.732363238259793</v>
+        <v>2.371008244622682</v>
       </c>
       <c r="BT6">
-        <v>-1.61011572378239</v>
+        <v>-1.570366807068422</v>
       </c>
       <c r="BU6">
         <v>1</v>
@@ -2027,16 +2027,16 @@
         <v>1</v>
       </c>
       <c r="BW6">
-        <v>0.1767850201025485</v>
+        <v>0.2060500980973672</v>
       </c>
       <c r="BX6">
-        <v>-0.1185517476277606</v>
+        <v>-0.06533374064466491</v>
       </c>
       <c r="BY6">
-        <v>0.2713149026113668</v>
+        <v>0.3794333683105981</v>
       </c>
       <c r="BZ6">
-        <v>0.8554052679809974</v>
+        <v>1.321185536718255</v>
       </c>
       <c r="CA6">
         <v>1</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9873132636482654</v>
+        <v>1.24</v>
       </c>
       <c r="D7">
-        <v>0.2856020796398627</v>
+        <v>0.1081081081081082</v>
       </c>
       <c r="E7">
-        <v>0.7687632595484567</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="F7">
-        <v>0.7981330733790361</v>
+        <v>0.6147313088742203</v>
       </c>
       <c r="G7">
-        <v>0.5944864482946243</v>
+        <v>0.4363636363636369</v>
       </c>
       <c r="H7">
-        <v>0.6711789072081399</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="I7">
-        <v>-0.5712883917315176</v>
+        <v>-0.3232323232323233</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>0.6444444444444445</v>
+        <v>1.161764705882353</v>
       </c>
       <c r="R7">
-        <v>0.6254525800495674</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="S7">
-        <v>0.02592569703935849</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="T7">
-        <v>-0.06066151855792556</v>
+        <v>0.1590909090909093</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2158,88 +2158,88 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.03405445716937104</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="AN7">
-        <v>-0.5214135939249684</v>
+        <v>-0.3978201634877387</v>
       </c>
       <c r="AO7">
-        <v>-0.7308812319421315</v>
+        <v>-0.6673868198381819</v>
       </c>
       <c r="AP7">
-        <v>-0.2544931434303706</v>
+        <v>-0.1346153846153852</v>
       </c>
       <c r="AQ7">
-        <v>0.4496782209658498</v>
+        <v>0.5597014925373132</v>
       </c>
       <c r="AR7">
-        <v>0.1537252502296879</v>
+        <v>0.24</v>
       </c>
       <c r="AS7">
-        <v>0.297676052679309</v>
+        <v>0.820614469772052</v>
       </c>
       <c r="AT7">
-        <v>-0.4866132352522216</v>
+        <v>-0.4585365853658519</v>
       </c>
       <c r="AU7">
-        <v>-0.5270883058852027</v>
+        <v>-0.5865384615384618</v>
       </c>
       <c r="AV7">
-        <v>-0.05371345097863123</v>
+        <v>-0.2197669956826169</v>
       </c>
       <c r="AW7">
-        <v>-0.3450284297607558</v>
+        <v>-0.2954420647995607</v>
       </c>
       <c r="AX7">
-        <v>-0.1054713360771616</v>
+        <v>-0.07454221357964673</v>
       </c>
       <c r="AY7">
-        <v>0.4358107280989049</v>
+        <v>0.5874125874125877</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>0.2105263157894731</v>
       </c>
       <c r="BA7">
-        <v>0.7406752481622491</v>
+        <v>0.95</v>
       </c>
       <c r="BB7">
-        <v>0.4689387026195571</v>
+        <v>0.5633933940578323</v>
       </c>
       <c r="BC7">
-        <v>-0.506316917536512</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="BD7">
-        <v>-0.286955100288071</v>
+        <v>-0.1041666666666667</v>
       </c>
       <c r="BE7">
-        <v>-0.4853944330532495</v>
+        <v>-0.2415235106788068</v>
       </c>
       <c r="BF7">
-        <v>1.923761205574118</v>
+        <v>2.112453408304642</v>
       </c>
       <c r="BG7">
-        <v>0.9590492522073458</v>
+        <v>1.088583204089586</v>
       </c>
       <c r="BH7">
-        <v>0.4831757476776143</v>
+        <v>0.5</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0.3323783937469867</v>
+        <v>0.4080629301868238</v>
       </c>
       <c r="BK7">
-        <v>0.06284917817670753</v>
+        <v>0.1522253461835916</v>
       </c>
       <c r="BL7">
-        <v>0.6339319137970308</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>-3.070719344610385</v>
+        <v>-2.999999999999997</v>
       </c>
       <c r="BN7">
-        <v>-1.002260533928439</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BO7">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>-0.01448311770887134</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>0.6918020506608724</v>
+        <v>0.6405881924068301</v>
       </c>
       <c r="BT7">
-        <v>-0.7616308752975418</v>
+        <v>-0.7459242333575005</v>
       </c>
       <c r="BU7">
         <v>1</v>
@@ -2266,16 +2266,16 @@
         <v>1</v>
       </c>
       <c r="BW7">
-        <v>0.2742524280353213</v>
+        <v>0.3011361043938495</v>
       </c>
       <c r="BX7">
-        <v>-0.1797079937006166</v>
+        <v>-0.1640933616157686</v>
       </c>
       <c r="BY7">
-        <v>3.027255205311392</v>
+        <v>3.555718782791186</v>
       </c>
       <c r="BZ7">
-        <v>0.008132768982715371</v>
+        <v>0.2579503833196066</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.06247378019886065</v>
+        <v>0.28</v>
       </c>
       <c r="D8">
-        <v>-1.142408318559449</v>
+        <v>-1.513513513513512</v>
       </c>
       <c r="E8">
-        <v>0.9225159114581482</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="F8">
-        <v>2.260820731327998</v>
+        <v>1.766835970879645</v>
       </c>
       <c r="G8">
-        <v>0.3943408222396022</v>
+        <v>0.254545454545454</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.01612903225806452</v>
       </c>
       <c r="I8">
-        <v>-0.3973753482532568</v>
+        <v>-0.1616161616161616</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2331,16 +2331,16 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.06666666666666667</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="S8">
-        <v>-0.1296284851967925</v>
+        <v>-0.03389830508474576</v>
       </c>
       <c r="T8">
-        <v>-0.1819845556737772</v>
+        <v>-0.02272727272727264</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2397,85 +2397,85 @@
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-0.4427079432018235</v>
+        <v>-0.3650793650793651</v>
       </c>
       <c r="AN8">
-        <v>0.007755174940812936</v>
+        <v>0.08719346049046281</v>
       </c>
       <c r="AO8">
-        <v>0.1655406136322563</v>
+        <v>0.2586832190723241</v>
       </c>
       <c r="AP8">
-        <v>-0.1109522464131784</v>
+        <v>-0.01923076923076968</v>
       </c>
       <c r="AQ8">
-        <v>-0.7336551123674835</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="AR8">
-        <v>-1.199056951791566</v>
+        <v>-0.9333333333333333</v>
       </c>
       <c r="AS8">
-        <v>0.4463914206247525</v>
+        <v>1.058473736372647</v>
       </c>
       <c r="AT8">
-        <v>-1.348007846256742</v>
+        <v>-1.278048780487802</v>
       </c>
       <c r="AU8">
-        <v>-1.265141131821297</v>
+        <v>-1.567307692307694</v>
       </c>
       <c r="AV8">
-        <v>0.311696513293265</v>
+        <v>0.2139679440764193</v>
       </c>
       <c r="AW8">
-        <v>-0.4268224245769835</v>
+        <v>-0.4074684239428885</v>
       </c>
       <c r="AX8">
-        <v>0.2126774393914805</v>
+        <v>0.3364122508507535</v>
       </c>
       <c r="AY8">
-        <v>1.732865108846739</v>
+        <v>1.748251748251749</v>
       </c>
       <c r="AZ8">
-        <v>0.3682017131445871</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="BA8">
-        <v>0.7098304323052932</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="BB8">
-        <v>0.5536045273465282</v>
+        <v>0.6545003248304542</v>
       </c>
       <c r="BC8">
-        <v>0.182131571193329</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="BD8">
-        <v>0.5019096241655291</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="BE8">
-        <v>0.353248933878747</v>
+        <v>0.8899118643643864</v>
       </c>
       <c r="BF8">
-        <v>0.3847522411148236</v>
+        <v>0.3981676940189272</v>
       </c>
       <c r="BG8">
-        <v>-0.2686052295894116</v>
+        <v>-0.4644380378067819</v>
       </c>
       <c r="BH8">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI8">
         <v>0.9999999999999994</v>
       </c>
       <c r="BJ8">
-        <v>0.9543737000543363</v>
+        <v>1.00589970501475</v>
       </c>
       <c r="BK8">
-        <v>0.7135230228296728</v>
+        <v>0.8272013768643203</v>
       </c>
       <c r="BL8">
-        <v>-0.6339319137970318</v>
+        <v>-0.5000000000000006</v>
       </c>
       <c r="BM8">
-        <v>-1.023573114870128</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN8">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="BR8">
-        <v>1.985516882291129</v>
+        <v>2</v>
       </c>
       <c r="BS8">
-        <v>-1.142740940113157</v>
+        <v>-0.915125989152614</v>
       </c>
       <c r="BT8">
-        <v>0.2080660943994279</v>
+        <v>0.1962958508835528</v>
       </c>
       <c r="BU8">
         <v>1</v>
@@ -2505,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="BW8">
-        <v>-0.4478669474358944</v>
+        <v>-0.4033398731578229</v>
       </c>
       <c r="BX8">
-        <v>-0.3322055080545315</v>
+        <v>-0.4103576058057447</v>
       </c>
       <c r="BY8">
-        <v>-0.1962025554119113</v>
+        <v>-0.1593913955928647</v>
       </c>
       <c r="BZ8">
-        <v>0.3667681850026303</v>
+        <v>0.7079989592110041</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -2528,25 +2528,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1395437371529777</v>
+        <v>0.36</v>
       </c>
       <c r="D9">
-        <v>0.1904013864265751</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.537526519096913</v>
+        <v>1.094736842105263</v>
       </c>
       <c r="F9">
-        <v>1.857079942603316</v>
+        <v>1.448824369152106</v>
       </c>
       <c r="G9">
-        <v>1.154894201248684</v>
+        <v>0.9454545454545465</v>
       </c>
       <c r="H9">
-        <v>-1.00676836081221</v>
+        <v>-0.9838709677419355</v>
       </c>
       <c r="I9">
-        <v>1.298276825659787</v>
+        <v>1.414141414141414</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.4444444444444444</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="R9">
-        <v>0.3127262900247837</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="S9">
-        <v>0.07777709111807547</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2636,88 +2636,88 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>27.87357319313019</v>
+        <v>26.03174603174603</v>
       </c>
       <c r="AN9">
-        <v>-0.8008622696181339</v>
+        <v>-0.6539509536784742</v>
       </c>
       <c r="AO9">
-        <v>-0.949336975821604</v>
+        <v>-0.8930677536903219</v>
       </c>
       <c r="AP9">
-        <v>-0.9243506628439339</v>
+        <v>-0.6730769230769239</v>
       </c>
       <c r="AQ9">
-        <v>0.3163448876325167</v>
+        <v>0.4402985074626865</v>
       </c>
       <c r="AR9">
-        <v>0.2767054504134382</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="AS9">
-        <v>-0.2699209349791342</v>
+        <v>-0.08721506442021797</v>
       </c>
       <c r="AT9">
-        <v>-0.03540653424985344</v>
+        <v>-0.02926829268292512</v>
       </c>
       <c r="AU9">
-        <v>-0.1411783315395328</v>
+        <v>-0.07371794871794826</v>
       </c>
       <c r="AV9">
-        <v>0.06808987044533418</v>
+        <v>-0.07518868242960482</v>
       </c>
       <c r="AW9">
-        <v>-0.1349301293504453</v>
+        <v>-0.007688083470620571</v>
       </c>
       <c r="AX9">
-        <v>-0.1812449403291568</v>
+        <v>-0.1724193809755307</v>
       </c>
       <c r="AY9">
-        <v>0.1232675038223183</v>
+        <v>0.3076923076923079</v>
       </c>
       <c r="AZ9">
-        <v>-0.3682017131445854</v>
+        <v>-0.2105263157894731</v>
       </c>
       <c r="BA9">
-        <v>-0.3697381226881641</v>
+        <v>-0.25</v>
       </c>
       <c r="BB9">
-        <v>-0.9280968597123281</v>
+        <v>-0.9399241803555871</v>
       </c>
       <c r="BC9">
-        <v>-0.2309375220445753</v>
+        <v>0</v>
       </c>
       <c r="BD9">
-        <v>-0.2526566340074797</v>
+        <v>-0.0625</v>
       </c>
       <c r="BE9">
-        <v>-0.5655346664732723</v>
+        <v>-0.3496427645010159</v>
       </c>
       <c r="BF9">
-        <v>-0.4488776146339609</v>
+        <v>-0.5304037345525013</v>
       </c>
       <c r="BG9">
-        <v>0.008631645096478364</v>
+        <v>-0.1137247371116205</v>
       </c>
       <c r="BH9">
-        <v>0.4831757476776143</v>
+        <v>0.5</v>
       </c>
       <c r="BI9">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ9">
-        <v>-0.2405120199571504</v>
+        <v>-0.1425762045231071</v>
       </c>
       <c r="BK9">
-        <v>-0.665461886576896</v>
+        <v>-0.6032875972488154</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="BM9">
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>-0.3340868446428135</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO9">
         <v>1</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>0.4855168822911287</v>
+        <v>0.5</v>
       </c>
       <c r="BS9">
-        <v>-1.093688988488183</v>
+        <v>-0.8735293532820406</v>
       </c>
       <c r="BT9">
-        <v>1.339379225712559</v>
+        <v>1.295552615831448</v>
       </c>
       <c r="BU9">
         <v>1</v>
@@ -2744,16 +2744,16 @@
         <v>1</v>
       </c>
       <c r="BW9">
-        <v>24.65232906473328</v>
+        <v>24.08358808231054</v>
       </c>
       <c r="BX9">
-        <v>-0.142581551220454</v>
+        <v>-0.1041388414678462</v>
       </c>
       <c r="BY9">
-        <v>0.3760169623439413</v>
+        <v>0.5001049317943337</v>
       </c>
       <c r="BZ9">
-        <v>-0.2526288339016788</v>
+        <v>-0.06927716528023103</v>
       </c>
       <c r="CA9">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.1687360906634905</v>
+        <v>0.04</v>
       </c>
       <c r="D10">
-        <v>1.142408318559451</v>
+        <v>1.081081081081082</v>
       </c>
       <c r="E10">
-        <v>1.281272099247428</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="F10">
-        <v>0.7898181923214219</v>
+        <v>0.6081819863456289</v>
       </c>
       <c r="G10">
-        <v>1.234952451670691</v>
+        <v>1.018181818181818</v>
       </c>
       <c r="H10">
-        <v>0.6711789072081399</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="I10">
-        <v>-0.9625927395576046</v>
+        <v>-0.6868686868686869</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2809,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>-0.2888888888888889</v>
+        <v>-0.07352941176470588</v>
       </c>
       <c r="R10">
-        <v>-0.2084841933498558</v>
+        <v>-0.131578947368421</v>
       </c>
       <c r="S10">
-        <v>-0.8036966082201132</v>
+        <v>-0.9152542372881356</v>
       </c>
       <c r="T10">
-        <v>-0.6066151855792576</v>
+        <v>-0.6590909090909089</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2875,82 +2875,82 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.2383812001855973</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="AN10">
-        <v>0.9650155321025079</v>
+        <v>0.9645776566757491</v>
       </c>
       <c r="AO10">
-        <v>0.6024521013912018</v>
+        <v>0.7100450867766045</v>
       </c>
       <c r="AP10">
-        <v>-1.35497335389551</v>
+        <v>-1.01923076923077</v>
       </c>
       <c r="AQ10">
-        <v>3.983011554299184</v>
+        <v>3.723880597014925</v>
       </c>
       <c r="AR10">
-        <v>0.3381955505053134</v>
+        <v>0.4</v>
       </c>
       <c r="AS10">
-        <v>-0.3591501557464004</v>
+        <v>-0.2299306243805749</v>
       </c>
       <c r="AT10">
-        <v>0.6003847262534815</v>
+        <v>0.5756097560975607</v>
       </c>
       <c r="AU10">
-        <v>-0.07846796070836158</v>
+        <v>0.009615384615384992</v>
       </c>
       <c r="AV10">
-        <v>-0.05371345097863123</v>
+        <v>-0.2197669956826169</v>
       </c>
       <c r="AW10">
-        <v>-0.5663533569105486</v>
+        <v>-0.5985722130697421</v>
       </c>
       <c r="AX10">
-        <v>-0.4065585052903876</v>
+        <v>-0.463458110516934</v>
       </c>
       <c r="AY10">
-        <v>0.3264205996020994</v>
+        <v>0.4895104895104896</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>0.2105263157894731</v>
       </c>
       <c r="BA10">
-        <v>0.03124448345226286</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="BB10">
-        <v>-0.5666228573339179</v>
+        <v>-0.5509503881909983</v>
       </c>
       <c r="BC10">
-        <v>0.04444187344736072</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="BD10">
-        <v>0.02173109623725075</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="BE10">
-        <v>-0.3298171191759067</v>
+        <v>-0.03163014787910138</v>
       </c>
       <c r="BF10">
-        <v>-0.1282507470382745</v>
+        <v>-0.1732608774096442</v>
       </c>
       <c r="BG10">
-        <v>-0.1017373972707504</v>
+        <v>-0.2533450209827002</v>
       </c>
       <c r="BH10">
-        <v>0.8460639803606534</v>
+        <v>0.8333333333333338</v>
       </c>
       <c r="BI10">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ10">
-        <v>0.921637104985528</v>
+        <v>0.974434611602753</v>
       </c>
       <c r="BK10">
-        <v>0.2292146498209316</v>
+        <v>0.3248044449371871</v>
       </c>
       <c r="BL10">
-        <v>0.8452425517293739</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>0.4855168822911287</v>
+        <v>0.5</v>
       </c>
       <c r="BS10">
-        <v>-0.2598058108636245</v>
+        <v>-0.1663865434822935</v>
       </c>
       <c r="BT10">
-        <v>0.2888741752075087</v>
+        <v>0.2748141912369739</v>
       </c>
       <c r="BU10">
         <v>1</v>
@@ -2983,16 +2983,16 @@
         <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.1331959489924984</v>
+        <v>0.163526030022357</v>
       </c>
       <c r="BX10">
-        <v>-0.1579745940147831</v>
+        <v>-0.1289966633516303</v>
       </c>
       <c r="BY10">
-        <v>0.1233663399457725</v>
+        <v>0.208919202518363</v>
       </c>
       <c r="BZ10">
-        <v>-0.03798694750938011</v>
+        <v>0.200075137873602</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -3006,25 +3006,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.1687360906634905</v>
+        <v>0.04</v>
       </c>
       <c r="D11">
-        <v>0.7616055457063006</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="E11">
-        <v>-0.1537526519096913</v>
+        <v>-0.2947368421052631</v>
       </c>
       <c r="F11">
-        <v>-0.6498710171563904</v>
+        <v>-0.525807653249846</v>
       </c>
       <c r="G11">
-        <v>-0.08600868029244801</v>
+        <v>-0.181818181818182</v>
       </c>
       <c r="H11">
-        <v>-0.4362662896852909</v>
+        <v>-0.4354838709677419</v>
       </c>
       <c r="I11">
-        <v>-0.5278101308619524</v>
+        <v>-0.2828282828282828</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3048,16 +3048,16 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>-0.3111111111111111</v>
+        <v>-0.1029411764705882</v>
       </c>
       <c r="R11">
-        <v>-0.2084841933498558</v>
+        <v>-0.131578947368421</v>
       </c>
       <c r="S11">
-        <v>-0.2333312733542264</v>
+        <v>-0.1694915254237288</v>
       </c>
       <c r="T11">
-        <v>-0.2426460742317031</v>
+        <v>-0.1136363636363636</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -3114,88 +3114,88 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-0.425680714617138</v>
+        <v>-0.3492063492063492</v>
       </c>
       <c r="AN11">
-        <v>0.1504523710394508</v>
+        <v>0.2179836512261578</v>
       </c>
       <c r="AO11">
-        <v>-0.03031626019071899</v>
+        <v>0.05634858872212969</v>
       </c>
       <c r="AP11">
-        <v>-0.6372688688095499</v>
+        <v>-0.4423076923076933</v>
       </c>
       <c r="AQ11">
-        <v>1.483011554299183</v>
+        <v>1.485074626865671</v>
       </c>
       <c r="AR11">
-        <v>0.1537252502296879</v>
+        <v>0.24</v>
       </c>
       <c r="AS11">
-        <v>-0.09146249344460189</v>
+        <v>0.1982160555004956</v>
       </c>
       <c r="AT11">
-        <v>-0.5481414217525439</v>
+        <v>-0.5170731707317049</v>
       </c>
       <c r="AU11">
-        <v>0.254379392164779</v>
+        <v>0.4519230769230782</v>
       </c>
       <c r="AV11">
-        <v>-0.1755167724025966</v>
+        <v>-0.3643453089356289</v>
       </c>
       <c r="AW11">
-        <v>-0.5695609645504005</v>
+        <v>-0.6029654036243823</v>
       </c>
       <c r="AX11">
-        <v>-0.4186019920589166</v>
+        <v>-0.4790147463944255</v>
       </c>
       <c r="AY11">
-        <v>-0.6893448792968069</v>
+        <v>-0.4195804195804196</v>
       </c>
       <c r="AZ11">
-        <v>-0.7364034262891724</v>
+        <v>-0.6315789473684211</v>
       </c>
       <c r="BA11">
-        <v>-0.1538244116894727</v>
+        <v>-0.01666666666666667</v>
       </c>
       <c r="BB11">
-        <v>-0.1289698674597214</v>
+        <v>-0.08000215400699469</v>
       </c>
       <c r="BC11">
-        <v>-0.506316917536512</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="BD11">
-        <v>0.3304172927625725</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="BE11">
-        <v>0.3330106558785778</v>
+        <v>0.8626078820493309</v>
       </c>
       <c r="BF11">
-        <v>-1.090131349825334</v>
+        <v>-1.244689448838216</v>
       </c>
       <c r="BG11">
-        <v>-0.8765881766424558</v>
+        <v>-1.233555444605326</v>
       </c>
       <c r="BH11">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI11">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ11">
-        <v>-0.766343578249876</v>
+        <v>-0.6479842674532935</v>
       </c>
       <c r="BK11">
-        <v>-0.5952186874382239</v>
+        <v>-0.5304208666639643</v>
       </c>
       <c r="BL11">
-        <v>-0.4226212758646879</v>
+        <v>-0.2500000000000003</v>
       </c>
       <c r="BM11">
-        <v>-0.6823820765800862</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BN11">
-        <v>1.002260533928439</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BO11">
         <v>1</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.2355168822911287</v>
+        <v>0.25</v>
       </c>
       <c r="BS11">
-        <v>0.2797656570110901</v>
+        <v>0.2911764510940136</v>
       </c>
       <c r="BT11">
-        <v>-0.1959743096409761</v>
+        <v>-0.1962958508835528</v>
       </c>
       <c r="BU11">
         <v>0</v>
@@ -3222,16 +3222,16 @@
         <v>1</v>
       </c>
       <c r="BW11">
-        <v>-0.7393337834421519</v>
+        <v>-0.6876853583975912</v>
       </c>
       <c r="BX11">
-        <v>-0.3399701484272009</v>
+        <v>-0.4228965202981128</v>
       </c>
       <c r="BY11">
-        <v>-0.27823434308065</v>
+        <v>-0.2539349422875132</v>
       </c>
       <c r="BZ11">
-        <v>1.470402509939606</v>
+        <v>2.092940418018766</v>
       </c>
       <c r="CA11">
         <v>0</v>
@@ -3245,25 +3245,25 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.3707536080153289</v>
+        <v>0.6</v>
       </c>
       <c r="D12">
-        <v>-0.3808027728531503</v>
+        <v>-0.648648648648649</v>
       </c>
       <c r="E12">
-        <v>0.3075053038193827</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="F12">
-        <v>0.694463602107098</v>
+        <v>0.5330747224451545</v>
       </c>
       <c r="G12">
-        <v>0.074107820551569</v>
+        <v>-0.03636363636363641</v>
       </c>
       <c r="H12">
-        <v>-0.3355894536040699</v>
+        <v>-0.3387096774193548</v>
       </c>
       <c r="I12">
-        <v>-0.006071000427169793</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -3287,16 +3287,16 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.2222222222222222</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="R12">
-        <v>0.1042420966749279</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="S12">
-        <v>0.3888854555903773</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="T12">
-        <v>0.3033075927896289</v>
+        <v>0.7045454545454544</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3353,88 +3353,88 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0.06810891433874208</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AN12">
-        <v>0.3347695826668581</v>
+        <v>0.3869209809264305</v>
       </c>
       <c r="AO12">
-        <v>0.2333372238017481</v>
+        <v>0.3287221295781609</v>
       </c>
       <c r="AP12">
-        <v>0.8938340327071662</v>
+        <v>0.7884615384615382</v>
       </c>
       <c r="AQ12">
-        <v>0.1830115542991832</v>
+        <v>0.3208955223880595</v>
       </c>
       <c r="AR12">
-        <v>-0.89160645133219</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AS12">
-        <v>-0.2600065771161046</v>
+        <v>-0.07135777998017831</v>
       </c>
       <c r="AT12">
-        <v>-1.491573614757495</v>
+        <v>-1.41463414634146</v>
       </c>
       <c r="AU12">
-        <v>-0.7731059145305677</v>
+        <v>-0.9134615384615397</v>
       </c>
       <c r="AV12">
-        <v>-0.9063367009463892</v>
+        <v>-1.231815188453701</v>
       </c>
       <c r="AW12">
-        <v>-0.2921029037031966</v>
+        <v>-0.2229544206479956</v>
       </c>
       <c r="AX12">
-        <v>-0.4527252045697489</v>
+        <v>-0.5230918813806514</v>
       </c>
       <c r="AY12">
-        <v>-0.220530042881927</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
-        <v>-0.5523025697168797</v>
+        <v>-0.4210526315789481</v>
       </c>
       <c r="BA12">
-        <v>-0.4622725702590319</v>
+        <v>-0.35</v>
       </c>
       <c r="BB12">
-        <v>-0.5608080350211081</v>
+        <v>-0.5446931927332482</v>
       </c>
       <c r="BC12">
-        <v>-0.506316917536512</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="BD12">
-        <v>-0.3898504991298449</v>
+        <v>-0.2291666666666667</v>
       </c>
       <c r="BE12">
-        <v>-0.475288584756629</v>
+        <v>-0.2278894503517743</v>
       </c>
       <c r="BF12">
-        <v>-0.3847522411148236</v>
+        <v>-0.4589751631239299</v>
       </c>
       <c r="BG12">
-        <v>0.1901296112575268</v>
+        <v>0.1158758557168762</v>
       </c>
       <c r="BH12">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI12">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ12">
-        <v>-0.1197958256409214</v>
+        <v>-0.02654867256637156</v>
       </c>
       <c r="BK12">
-        <v>-0.07394020961965464</v>
+        <v>0.01032697609730186</v>
       </c>
       <c r="BL12">
-        <v>0.422621275864687</v>
+        <v>0.7499999999999997</v>
       </c>
       <c r="BM12">
-        <v>-0.3411910382900431</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN12">
-        <v>-0.6681736892856269</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BO12">
         <v>1</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>-0.5144831177088713</v>
+        <v>-0.5</v>
       </c>
       <c r="BS12">
-        <v>-0.2020610682745728</v>
+        <v>-0.1174183179307165</v>
       </c>
       <c r="BT12">
-        <v>-0.01733538178992739</v>
+        <v>-0.02271875318348909</v>
       </c>
       <c r="BU12">
         <v>1</v>
@@ -3461,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="BW12">
-        <v>-0.3621854256830921</v>
+        <v>-0.3197517908472877</v>
       </c>
       <c r="BX12">
-        <v>-0.2136700807139631</v>
+        <v>-0.2189378469497768</v>
       </c>
       <c r="BY12">
-        <v>0.04916444543964365</v>
+        <v>0.1233997901364113</v>
       </c>
       <c r="BZ12">
-        <v>-0.6220585423737877</v>
+        <v>-0.5328714082442731</v>
       </c>
       <c r="CA12">
         <v>0</v>
@@ -3484,25 +3484,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.1687360906634905</v>
+        <v>0.04</v>
       </c>
       <c r="D13">
-        <v>-0.5712041592797253</v>
+        <v>-0.8648648648648654</v>
       </c>
       <c r="E13">
-        <v>-0.2562544198494856</v>
+        <v>-0.3789473684210526</v>
       </c>
       <c r="F13">
-        <v>0.04747462659941183</v>
+        <v>0.0234655718533277</v>
       </c>
       <c r="G13">
-        <v>-0.5263290576134939</v>
+        <v>-0.5818181818181817</v>
       </c>
       <c r="H13">
-        <v>0.4027073443248839</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="I13">
-        <v>-0.09302752216630022</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -3526,16 +3526,16 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>-0.2</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="R13">
-        <v>-0.2084841933498558</v>
+        <v>-0.131578947368421</v>
       </c>
       <c r="S13">
-        <v>-0.3888854555903773</v>
+        <v>-0.3728813559322034</v>
       </c>
       <c r="T13">
-        <v>-0.3639691113475546</v>
+        <v>-0.2954545454545454</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -3592,88 +3592,88 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>-0.425680714617138</v>
+        <v>-0.3492063492063492</v>
       </c>
       <c r="AN13">
-        <v>1.238518491291563</v>
+        <v>1.215258855585831</v>
       </c>
       <c r="AO13">
-        <v>1.626934210619073</v>
+        <v>1.768410845531468</v>
       </c>
       <c r="AP13">
-        <v>0.511058307327987</v>
+        <v>0.4807692307692301</v>
       </c>
       <c r="AQ13">
-        <v>-0.7503217790341502</v>
+        <v>-0.5149253731343285</v>
       </c>
       <c r="AR13">
-        <v>0.7071361510565645</v>
+        <v>0.72</v>
       </c>
       <c r="AS13">
-        <v>-0.4285506607876073</v>
+        <v>-0.3409316154608522</v>
       </c>
       <c r="AT13">
-        <v>0.8670068677548813</v>
+        <v>0.829268292682927</v>
       </c>
       <c r="AU13">
-        <v>0.1868451466542864</v>
+        <v>0.362179487179488</v>
       </c>
       <c r="AV13">
-        <v>-0.09431455811995304</v>
+        <v>-0.2679597667669542</v>
       </c>
       <c r="AW13">
-        <v>0.04469589848127059</v>
+        <v>0.2383305875892368</v>
       </c>
       <c r="AX13">
-        <v>0.7937756759730066</v>
+        <v>1.087019931939718</v>
       </c>
       <c r="AY13">
-        <v>-0.7831078465797827</v>
+        <v>-0.5034965034965035</v>
       </c>
       <c r="AZ13">
-        <v>-0.3682017131445854</v>
+        <v>-0.2105263157894731</v>
       </c>
       <c r="BA13">
-        <v>-0.3697381226881641</v>
+        <v>-0.25</v>
       </c>
       <c r="BB13">
-        <v>-0.1349824425572943</v>
+        <v>-0.08647214665097185</v>
       </c>
       <c r="BC13">
-        <v>-0.09324782429860699</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="BD13">
-        <v>-0.1154627688851145</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="BE13">
-        <v>-0.01558448166785325</v>
+        <v>0.3923091999874221</v>
       </c>
       <c r="BF13">
-        <v>-0.70537910871051</v>
+        <v>-0.816118020266787</v>
       </c>
       <c r="BG13">
-        <v>-0.2667445794237351</v>
+        <v>-0.4620842572652044</v>
       </c>
       <c r="BH13">
-        <v>1.208952213043692</v>
+        <v>1.166666666666668</v>
       </c>
       <c r="BI13">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ13">
-        <v>0.8786703239577173</v>
+        <v>0.9331366764995077</v>
       </c>
       <c r="BK13">
-        <v>1.256983563534138</v>
+        <v>1.390959766126065</v>
       </c>
       <c r="BL13">
-        <v>-0.6339319137970318</v>
+        <v>-0.5000000000000006</v>
       </c>
       <c r="BM13">
-        <v>-0.3411910382900431</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN13">
-        <v>-0.3340868446428135</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO13">
         <v>1</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="BR13">
-        <v>-0.01448311770887134</v>
+        <v>0</v>
       </c>
       <c r="BS13">
-        <v>0.6721812700108826</v>
+        <v>0.6239495380586004</v>
       </c>
       <c r="BT13">
-        <v>-0.478802592469259</v>
+        <v>-0.4711100421205267</v>
       </c>
       <c r="BU13">
         <v>0</v>
@@ -3700,16 +3700,16 @@
         <v>1</v>
       </c>
       <c r="BW13">
-        <v>-0.3767774752392462</v>
+        <v>-0.3339873157822696</v>
       </c>
       <c r="BX13">
-        <v>-0.365062759172823</v>
+        <v>-0.463417920572761</v>
       </c>
       <c r="BY13">
-        <v>27.09507215340362</v>
+        <v>31.29443861490032</v>
       </c>
       <c r="BZ13">
-        <v>-0.1419961283806485</v>
+        <v>0.06955488906430471</v>
       </c>
       <c r="CA13">
         <v>0</v>
@@ -3723,25 +3723,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.5540858754340758</v>
+        <v>-0.36</v>
       </c>
       <c r="D14">
-        <v>0.9520069321328757</v>
+        <v>0.8648648648648654</v>
       </c>
       <c r="E14">
-        <v>2.050035358795885</v>
+        <v>1.515789473684211</v>
       </c>
       <c r="F14">
-        <v>1.828813253651184</v>
+        <v>1.426559749672869</v>
       </c>
       <c r="G14">
-        <v>1.79536020462475</v>
+        <v>1.527272727272728</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-0.01612903225806452</v>
       </c>
       <c r="I14">
-        <v>-1.397375348253257</v>
+        <v>-1.090909090909091</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3765,16 +3765,16 @@
         <v>3</v>
       </c>
       <c r="Q14">
-        <v>0.6888888888888889</v>
+        <v>1.220588235294118</v>
       </c>
       <c r="R14">
-        <v>0.7296946767244953</v>
+        <v>2.236842105263158</v>
       </c>
       <c r="S14">
-        <v>1.788873095715736</v>
+        <v>2.474576271186441</v>
       </c>
       <c r="T14">
-        <v>2.487122260874957</v>
+        <v>3.977272727272727</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -3831,88 +3831,88 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>186.7376158882461</v>
+        <v>174.1269841269841</v>
       </c>
       <c r="AN14">
-        <v>-0.6403279240071664</v>
+        <v>-0.5068119891008175</v>
       </c>
       <c r="AO14">
-        <v>-0.7308812319421315</v>
+        <v>-0.6673868198381819</v>
       </c>
       <c r="AP14">
-        <v>-2.838229289739829</v>
+        <v>-2.211538461538463</v>
       </c>
       <c r="AQ14">
-        <v>1.699678220965851</v>
+        <v>1.67910447761194</v>
       </c>
       <c r="AR14">
-        <v>-2.428858953629069</v>
+        <v>-2</v>
       </c>
       <c r="AS14">
-        <v>2.602764255833685</v>
+        <v>4.50743310208127</v>
       </c>
       <c r="AT14">
-        <v>-2.270930643761584</v>
+        <v>-2.156097560975605</v>
       </c>
       <c r="AU14">
-        <v>10.26391935175559</v>
+        <v>13.75320512820515</v>
       </c>
       <c r="AV14">
-        <v>-2.895790950871158</v>
+        <v>-3.593260971586231</v>
       </c>
       <c r="AW14">
-        <v>26.99501528851836</v>
+        <v>37.14991762767711</v>
       </c>
       <c r="AX14">
-        <v>10.2569454043447</v>
+        <v>13.31064657267866</v>
       </c>
       <c r="AY14">
-        <v>0.9046255645137847</v>
+        <v>1.006993006993007</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>0.2105263157894731</v>
       </c>
       <c r="BA14">
-        <v>-0.03044514826164899</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="BB14">
-        <v>-0.8449641194284274</v>
+        <v>-0.8504669662032641</v>
       </c>
       <c r="BC14">
-        <v>-0.6440066152824803</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="BD14">
-        <v>-0.732835161935758</v>
+        <v>-0.6458333333333334</v>
       </c>
       <c r="BE14">
-        <v>-1.092773044236579</v>
+        <v>-1.060953644910285</v>
       </c>
       <c r="BF14">
-        <v>1.154256723344471</v>
+        <v>1.255310551161784</v>
       </c>
       <c r="BG14">
-        <v>1.216733791378701</v>
+        <v>1.414562190013774</v>
       </c>
       <c r="BH14">
-        <v>1.208952213043692</v>
+        <v>1.166666666666668</v>
       </c>
       <c r="BI14">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ14">
-        <v>0.366698729093578</v>
+        <v>0.4410502508089513</v>
       </c>
       <c r="BK14">
-        <v>-0.09592600800511214</v>
+        <v>-0.01247997556905571</v>
       </c>
       <c r="BL14">
-        <v>1.479174465526407</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="BM14">
-        <v>-1.364764153160171</v>
+        <v>-1.333333333333332</v>
       </c>
       <c r="BN14">
-        <v>1.002260533928439</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BO14">
         <v>1</v>
@@ -3924,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="BR14">
-        <v>0.3251829662072119</v>
+        <v>0.3396660839160832</v>
       </c>
       <c r="BS14">
-        <v>0.1900920413739346</v>
+        <v>0.2151321630833123</v>
       </c>
       <c r="BT14">
-        <v>-0.06519437577013307</v>
+        <v>-0.06922163681507684</v>
       </c>
       <c r="BU14">
         <v>1</v>
@@ -3939,16 +3939,16 @@
         <v>1</v>
       </c>
       <c r="BW14">
-        <v>13.39026004831691</v>
+        <v>13.09668294018342</v>
       </c>
       <c r="BX14">
-        <v>1.214812179215867</v>
+        <v>2.087880762985013</v>
       </c>
       <c r="BY14">
-        <v>45.10837869087306</v>
+        <v>52.05519412381952</v>
       </c>
       <c r="BZ14">
-        <v>0.5926494839806346</v>
+        <v>0.9914555069600551</v>
       </c>
       <c r="CA14">
         <v>0</v>
@@ -3962,25 +3962,25 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.8331733497400313</v>
+        <v>1.08</v>
       </c>
       <c r="D15">
-        <v>-0.9520069321328736</v>
+        <v>-1.297297297297296</v>
       </c>
       <c r="E15">
-        <v>-1.435024751157119</v>
+        <v>-1.347368421052632</v>
       </c>
       <c r="F15">
-        <v>-1.426491956510548</v>
+        <v>-1.137523079970277</v>
       </c>
       <c r="G15">
-        <v>-1.767231939154625</v>
+        <v>-1.709090909090909</v>
       </c>
       <c r="H15">
-        <v>0.3355894536040699</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="I15">
-        <v>-0.3973753482532568</v>
+        <v>-0.1616161616161616</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4004,16 +4004,16 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="R15">
-        <v>-0.1042420966749279</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="S15">
-        <v>0.6481424259839623</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="T15">
-        <v>0.5762844263002951</v>
+        <v>1.113636363636364</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -4070,88 +4070,88 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>0.2262652956721039</v>
+        <v>0.2585466575852509</v>
       </c>
       <c r="AN15">
-        <v>-0.7592422540893646</v>
+        <v>-0.6158038147138967</v>
       </c>
       <c r="AO15">
-        <v>-0.8589414955956154</v>
+        <v>-0.7996825396825399</v>
       </c>
       <c r="AP15">
-        <v>0.08043561627641127</v>
+        <v>0.1346153846153844</v>
       </c>
       <c r="AQ15">
-        <v>-0.6336551123674836</v>
+        <v>-0.4104477611940301</v>
       </c>
       <c r="AR15">
-        <v>-1.506507452250942</v>
+        <v>-1.2</v>
       </c>
       <c r="AS15">
-        <v>-0.2104347878009567</v>
+        <v>0.007928642220020007</v>
       </c>
       <c r="AT15">
-        <v>-1.512083010257602</v>
+        <v>-1.434146341463411</v>
       </c>
       <c r="AU15">
-        <v>-0.633213548830262</v>
+        <v>-0.7275641025641031</v>
       </c>
       <c r="AV15">
-        <v>-0.4597245223918493</v>
+        <v>-0.7016947065259904</v>
       </c>
       <c r="AW15">
-        <v>-0.3722930946994983</v>
+        <v>-0.3327841845140033</v>
       </c>
       <c r="AX15">
-        <v>-0.3513591909346295</v>
+        <v>-0.392156862745098</v>
       </c>
       <c r="AY15">
-        <v>0.685845307520174</v>
+        <v>0.8111888111888115</v>
       </c>
       <c r="AZ15">
-        <v>-1.472806852578347</v>
+        <v>-1.473684210526317</v>
       </c>
       <c r="BA15">
-        <v>-1.38761704596771</v>
+        <v>-1.35</v>
       </c>
       <c r="BB15">
-        <v>-0.7554799357340469</v>
+        <v>-0.754175111073063</v>
       </c>
       <c r="BC15">
-        <v>-1.194765406266353</v>
+        <v>-1.217391304347826</v>
       </c>
       <c r="BD15">
-        <v>-1.110118291022262</v>
+        <v>-1.104166666666667</v>
       </c>
       <c r="BE15">
-        <v>-0.9128834997176019</v>
+        <v>-0.8182600253163407</v>
       </c>
       <c r="BF15">
-        <v>-0.9618806027870591</v>
+        <v>-1.101832305981073</v>
       </c>
       <c r="BG15">
-        <v>0.9061860268920459</v>
+        <v>1.021709573888963</v>
       </c>
       <c r="BH15">
-        <v>0.8460639803606534</v>
+        <v>0.8333333333333338</v>
       </c>
       <c r="BI15">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ15">
-        <v>-0.3530440655061773</v>
+        <v>-0.2507374631268435</v>
       </c>
       <c r="BK15">
-        <v>0.8983735468788107</v>
+        <v>1.018955931034982</v>
       </c>
       <c r="BL15">
-        <v>-1.901795741391095</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="BM15">
-        <v>-2.729528306320342</v>
+        <v>-2.666666666666664</v>
       </c>
       <c r="BN15">
-        <v>-1.336347378571252</v>
+        <v>-1.333333333333332</v>
       </c>
       <c r="BO15">
         <v>0</v>
@@ -4163,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>-0.2644831177088713</v>
+        <v>-0.25</v>
       </c>
       <c r="BS15">
-        <v>-1.437052649863002</v>
+        <v>-1.164705804376054</v>
       </c>
       <c r="BT15">
-        <v>0.4908943772277107</v>
+        <v>0.4711100421205267</v>
       </c>
       <c r="BU15">
         <v>1</v>
@@ -4178,16 +4178,16 @@
         <v>1</v>
       </c>
       <c r="BW15">
-        <v>-0.6495365554042806</v>
+        <v>-0.6000821280284714</v>
       </c>
       <c r="BX15">
-        <v>-0.1590326571741699</v>
+        <v>-0.1307053018521041</v>
       </c>
       <c r="BY15">
-        <v>-0.305001652264456</v>
+        <v>-0.284784889821616</v>
       </c>
       <c r="BZ15">
-        <v>-0.6279840957962681</v>
+        <v>-0.5403073355398853</v>
       </c>
       <c r="CA15">
         <v>0</v>
@@ -4201,25 +4201,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.01459617675525641</v>
+        <v>0.2</v>
       </c>
       <c r="D16">
-        <v>0.7616055457063006</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="E16">
-        <v>0.871265027488251</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="F16">
-        <v>0.5787773271029171</v>
+        <v>0.441952946693486</v>
       </c>
       <c r="G16">
-        <v>0.8346611995606499</v>
+        <v>0.6545454545454553</v>
       </c>
       <c r="H16">
-        <v>0.033558945360407</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="I16">
-        <v>0.4287116082684824</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4243,16 +4243,16 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>-0.08888888888888889</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="R16">
-        <v>-0.1042420966749279</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="S16">
-        <v>-0.6481424259839623</v>
+        <v>-0.711864406779661</v>
       </c>
       <c r="T16">
-        <v>-0.5156229077423691</v>
+        <v>-0.5227272727272726</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -4309,88 +4309,88 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>21.36917187378033</v>
+        <v>19.96825396825397</v>
       </c>
       <c r="AN16">
-        <v>0.01964660794903302</v>
+        <v>0.09809264305177097</v>
       </c>
       <c r="AO16">
-        <v>0.120342873519262</v>
+        <v>0.211990612068433</v>
       </c>
       <c r="AP16">
-        <v>-0.3501870747751655</v>
+        <v>-0.2115384615384622</v>
       </c>
       <c r="AQ16">
-        <v>-0.2836551123674836</v>
+        <v>-0.09701492537313459</v>
       </c>
       <c r="AR16">
-        <v>0.03074505004593758</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AS16">
-        <v>-0.3269284926915541</v>
+        <v>-0.1783944499504458</v>
       </c>
       <c r="AT16">
-        <v>0.7644598902543432</v>
+        <v>0.731707317073171</v>
       </c>
       <c r="AU16">
-        <v>0.02765728223669777</v>
+        <v>0.1506410256410264</v>
       </c>
       <c r="AV16">
-        <v>-0.01311234383730943</v>
+        <v>-0.1715742245982795</v>
       </c>
       <c r="AW16">
-        <v>-0.4300300322168356</v>
+        <v>-0.4118616144975289</v>
       </c>
       <c r="AX16">
-        <v>-0.2841163898103423</v>
+        <v>-0.3052989790957705</v>
       </c>
       <c r="AY16">
-        <v>0.3733020832435875</v>
+        <v>0.5314685314685317</v>
       </c>
       <c r="AZ16">
-        <v>-0.1841008565722927</v>
+        <v>0</v>
       </c>
       <c r="BA16">
-        <v>-0.1538244116894727</v>
+        <v>-0.01666666666666667</v>
       </c>
       <c r="BB16">
-        <v>-0.5800207520195751</v>
+        <v>-0.5653675519942372</v>
       </c>
       <c r="BC16">
-        <v>-0.3686272197905436</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="BD16">
-        <v>-0.3898504991298449</v>
+        <v>-0.2291666666666667</v>
       </c>
       <c r="BE16">
-        <v>-0.6334898351627652</v>
+        <v>-0.4413228335315439</v>
       </c>
       <c r="BF16">
-        <v>0.2565014940765491</v>
+        <v>0.2553105511617844</v>
       </c>
       <c r="BG16">
-        <v>0.484803033329346</v>
+        <v>0.4886469331539497</v>
       </c>
       <c r="BH16">
-        <v>1.208952213043692</v>
+        <v>1.166666666666668</v>
       </c>
       <c r="BI16">
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0.7542712626962478</v>
+        <v>0.813569321533923</v>
       </c>
       <c r="BK16">
-        <v>0.2961305395267191</v>
+        <v>0.3942195935469661</v>
       </c>
       <c r="BL16">
-        <v>-0.8452425517293758</v>
+        <v>-0.7500000000000009</v>
       </c>
       <c r="BM16">
-        <v>-0.3411910382900431</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN16">
-        <v>-0.3340868446428135</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO16">
         <v>1</v>
@@ -4402,13 +4402,13 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>-0.2644831177088713</v>
+        <v>-0.25</v>
       </c>
       <c r="BS16">
-        <v>0.5740773667609345</v>
+        <v>0.5407562663174538</v>
       </c>
       <c r="BT16">
-        <v>-0.4383985520652185</v>
+        <v>-0.4318508719438161</v>
       </c>
       <c r="BU16">
         <v>1</v>
@@ -4417,16 +4417,16 @@
         <v>1</v>
       </c>
       <c r="BW16">
-        <v>19.78831254601525</v>
+        <v>19.33841310398321</v>
       </c>
       <c r="BX16">
-        <v>-0.167580885107384</v>
+        <v>-0.1445096113849864</v>
       </c>
       <c r="BY16">
-        <v>0.3081882366910996</v>
+        <v>0.4219307450157397</v>
       </c>
       <c r="BZ16">
-        <v>-0.3929062811138032</v>
+        <v>-0.2453101573592721</v>
       </c>
       <c r="CA16">
         <v>0</v>
@@ -4440,25 +4440,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-0.3228760045717247</v>
+        <v>-0.12</v>
       </c>
       <c r="D17">
-        <v>0.4760034660664378</v>
+        <v>0.3243243243243245</v>
       </c>
       <c r="E17">
-        <v>0.7175123755785596</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="F17">
-        <v>0.5934102831533771</v>
+        <v>0.4534787818866915</v>
       </c>
       <c r="G17">
-        <v>0.5944864482946243</v>
+        <v>0.4363636363636369</v>
       </c>
       <c r="H17">
-        <v>2.282008284507675</v>
+        <v>2.17741935483871</v>
       </c>
       <c r="I17">
-        <v>0.950450738703265</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4482,16 +4482,16 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>-0.4</v>
+        <v>-0.2205882352941176</v>
       </c>
       <c r="R17">
-        <v>-0.2293326126848414</v>
+        <v>-0.1842105263157895</v>
       </c>
       <c r="S17">
-        <v>0.5962910319052454</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="T17">
-        <v>0.2729768335106662</v>
+        <v>0.6590909090909092</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -4548,88 +4548,88 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>5.908448318885875</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AN17">
-        <v>-0.7782886490868879</v>
+        <v>-0.6332609316206054</v>
       </c>
       <c r="AO17">
-        <v>-1.038861682125972</v>
+        <v>-0.9855533938607874</v>
       </c>
       <c r="AP17">
-        <v>-0.2469613740917877</v>
+        <v>-0.1285610103822777</v>
       </c>
       <c r="AQ17">
-        <v>1.854130434833854</v>
+        <v>1.817419893016122</v>
       </c>
       <c r="AR17">
-        <v>-0.522665850780939</v>
+        <v>-0.3466666666666667</v>
       </c>
       <c r="AS17">
-        <v>0.2183611897750723</v>
+        <v>0.6937561942517346</v>
       </c>
       <c r="AT17">
-        <v>-0.4455944442520057</v>
+        <v>-0.419512195121949</v>
       </c>
       <c r="AU17">
-        <v>1.006903842138835</v>
+        <v>1.451923076923079</v>
       </c>
       <c r="AV17">
-        <v>-0.7845333795224237</v>
+        <v>-1.087236875200689</v>
       </c>
       <c r="AW17">
-        <v>0.1409241276768327</v>
+        <v>0.370126304228446</v>
       </c>
       <c r="AX17">
-        <v>0.2006339526229515</v>
+        <v>0.320855614973262</v>
       </c>
       <c r="AY17">
-        <v>1.123405821507395</v>
+        <v>1.202797202797203</v>
       </c>
       <c r="AZ17">
-        <v>2.945613705156695</v>
+        <v>3.578947368421056</v>
       </c>
       <c r="BA17">
-        <v>3.331639780146546</v>
+        <v>3.75</v>
       </c>
       <c r="BB17">
-        <v>3.193908271457101</v>
+        <v>3.495669960974644</v>
       </c>
       <c r="BC17">
-        <v>2.522856432874788</v>
+        <v>3.478260869565216</v>
       </c>
       <c r="BD17">
-        <v>3.245786926612833</v>
+        <v>4.1875</v>
       </c>
       <c r="BE17">
-        <v>2.990464642468063</v>
+        <v>4.447847528046212</v>
       </c>
       <c r="BF17">
-        <v>0.70537910871051</v>
+        <v>0.7553105511617844</v>
       </c>
       <c r="BG17">
-        <v>-1.482083124315629</v>
+        <v>-1.999525454523023</v>
       </c>
       <c r="BH17">
-        <v>0.4831757476776143</v>
+        <v>0.5</v>
       </c>
       <c r="BI17">
         <v>2.499999999999999</v>
       </c>
       <c r="BJ17">
-        <v>5.351307625233588</v>
+        <v>5.232055063913469</v>
       </c>
       <c r="BK17">
-        <v>4.380957419964568</v>
+        <v>4.631611731610247</v>
       </c>
       <c r="BL17">
-        <v>1.901795741391093</v>
+        <v>2.5</v>
       </c>
       <c r="BM17">
-        <v>0.3411910382900431</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BN17">
-        <v>0.3340868446428135</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BO17">
         <v>2</v>
@@ -4641,13 +4641,13 @@
         <v>0</v>
       </c>
       <c r="BR17">
-        <v>-0.01448311770887134</v>
+        <v>0</v>
       </c>
       <c r="BS17">
-        <v>1.309856641135545</v>
+        <v>1.164705804376054</v>
       </c>
       <c r="BT17">
-        <v>-0.8020349157015823</v>
+        <v>-0.785183403534211</v>
       </c>
       <c r="BU17">
         <v>1</v>
@@ -4656,16 +4656,16 @@
         <v>1</v>
       </c>
       <c r="BW17">
-        <v>6.120426128417574</v>
+        <v>6.004471414883425</v>
       </c>
       <c r="BX17">
-        <v>1.408142463915075</v>
+        <v>2.400084779176316</v>
       </c>
       <c r="BY17">
-        <v>-0.1688889746121092</v>
+        <v>-0.1279118572927597</v>
       </c>
       <c r="BZ17">
-        <v>2.739767157161581</v>
+        <v>3.685855468375681</v>
       </c>
       <c r="CA17">
         <v>1</v>
@@ -4679,25 +4679,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>-1.478925358883481</v>
+        <v>-1.32</v>
       </c>
       <c r="D18">
-        <v>-0.856806238919586</v>
+        <v>-1.189189189189187</v>
       </c>
       <c r="E18">
-        <v>0.2562544198494856</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="F18">
-        <v>1.002538003578741</v>
+        <v>0.7757334693424331</v>
       </c>
       <c r="G18">
-        <v>-0.1260378055034523</v>
+        <v>-0.2181818181818184</v>
       </c>
       <c r="H18">
-        <v>-0.3355894536040699</v>
+        <v>-0.3387096774193548</v>
       </c>
       <c r="I18">
-        <v>-0.09302752216630022</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4721,16 +4721,16 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>-0.7333333333333333</v>
+        <v>-0.6617647058823529</v>
       </c>
       <c r="R18">
-        <v>-0.3544231286947548</v>
+        <v>-0.5</v>
       </c>
       <c r="S18">
-        <v>-0.5444396378265283</v>
+        <v>-0.576271186440678</v>
       </c>
       <c r="T18">
-        <v>-0.4549613891844432</v>
+        <v>-0.4318181818181817</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -4787,85 +4787,85 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>-0.05108168575405655</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>-0.3787163978263306</v>
+        <v>-0.2670299727520437</v>
       </c>
       <c r="AO18">
-        <v>0.02994739329327352</v>
+        <v>0.1186053980606512</v>
       </c>
       <c r="AP18">
-        <v>-2.024830873309073</v>
+        <v>-1.557692307692309</v>
       </c>
       <c r="AQ18">
-        <v>-1.016988445700817</v>
+        <v>-0.7537313432835824</v>
       </c>
       <c r="AR18">
-        <v>0.03074505004593758</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AS18">
-        <v>-0.4037647661300334</v>
+        <v>-0.3012884043607533</v>
       </c>
       <c r="AT18">
-        <v>0.108159234250899</v>
+        <v>0.1073170731707324</v>
       </c>
       <c r="AU18">
-        <v>-0.07364408602904099</v>
+        <v>0.01602564102564105</v>
       </c>
       <c r="AV18">
-        <v>0.6365053704238395</v>
+        <v>0.5995101127511181</v>
       </c>
       <c r="AW18">
-        <v>-0.3819159176190546</v>
+        <v>-0.3459637561779243</v>
       </c>
       <c r="AX18">
-        <v>-0.1129985153074922</v>
+        <v>-0.08426511100307892</v>
       </c>
       <c r="AY18">
-        <v>-0.220530042881927</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
-        <v>-0.3682017131445854</v>
+        <v>-0.2105263157894731</v>
       </c>
       <c r="BA18">
-        <v>-0.3388933068312082</v>
+        <v>-0.2166666666666667</v>
       </c>
       <c r="BB18">
-        <v>-0.3198085161715942</v>
+        <v>-0.2853591987532273</v>
       </c>
       <c r="BC18">
-        <v>-0.3686272197905436</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="BD18">
-        <v>-0.3898504991298449</v>
+        <v>-0.2291666666666667</v>
       </c>
       <c r="BE18">
-        <v>-0.4284526882548122</v>
+        <v>-0.1647019355946055</v>
       </c>
       <c r="BF18">
-        <v>-0.1282507470382745</v>
+        <v>-0.1732608774096442</v>
       </c>
       <c r="BG18">
-        <v>0.3142026310772401</v>
+        <v>0.2728320988482755</v>
       </c>
       <c r="BH18">
-        <v>-0.2426007176884632</v>
+        <v>-0.1666666666666669</v>
       </c>
       <c r="BI18">
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>-0.5024047805076127</v>
+        <v>-0.3942969518190752</v>
       </c>
       <c r="BK18">
-        <v>-0.3253369223264821</v>
+        <v>-0.2504592175747979</v>
       </c>
       <c r="BL18">
-        <v>-0.6339319137970318</v>
+        <v>-0.5000000000000006</v>
       </c>
       <c r="BM18">
-        <v>-0.3411910382900431</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN18">
         <v>0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>-0.2644831177088713</v>
+        <v>-0.25</v>
       </c>
       <c r="BS18">
-        <v>0.7212332216358566</v>
+        <v>0.6655461739291738</v>
       </c>
       <c r="BT18">
-        <v>-0.3171864308530973</v>
+        <v>-0.3140733614136844</v>
       </c>
       <c r="BU18">
         <v>0</v>
@@ -4895,16 +4895,16 @@
         <v>1</v>
       </c>
       <c r="BW18">
-        <v>-0.4869661571440509</v>
+        <v>-0.4414837797143771</v>
       </c>
       <c r="BX18">
-        <v>0.4644537177046307</v>
+        <v>0.8761465247024983</v>
       </c>
       <c r="BY18">
-        <v>-0.05007489813297039</v>
+        <v>0.009024134312696741</v>
       </c>
       <c r="BZ18">
-        <v>-0.04339121595968545</v>
+        <v>0.1932933667178507</v>
       </c>
       <c r="CA18">
         <v>0</v>
@@ -4918,25 +4918,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-0.09166613370937347</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
-        <v>0.1904013864265751</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>4.356325137441255</v>
+        <v>3.410526315789474</v>
       </c>
       <c r="F19">
-        <v>5.475703485182337</v>
+        <v>4.299079535243996</v>
       </c>
       <c r="G19">
-        <v>3.036263086165881</v>
+        <v>2.654545454545455</v>
       </c>
       <c r="H19">
-        <v>-0.201353672162442</v>
+        <v>-0.2096774193548387</v>
       </c>
       <c r="I19">
-        <v>-0.006071000427169793</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4960,16 +4960,16 @@
         <v>2</v>
       </c>
       <c r="Q19">
-        <v>0.6666666666666666</v>
+        <v>1.191176470588235</v>
       </c>
       <c r="R19">
-        <v>0.7296946767244953</v>
+        <v>2.236842105263158</v>
       </c>
       <c r="S19">
-        <v>1.477764731243434</v>
+        <v>2.067796610169491</v>
       </c>
       <c r="T19">
-        <v>1.850176316016736</v>
+        <v>3.022727272727272</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -5026,85 +5026,85 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>1.311096601020785</v>
+        <v>1.26984126984127</v>
       </c>
       <c r="AN19">
-        <v>0.4655753457572759</v>
+        <v>0.5068119891008173</v>
       </c>
       <c r="AO19">
-        <v>0.1354087868902601</v>
+        <v>0.2275548144030634</v>
       </c>
       <c r="AP19">
-        <v>-1.35497335389551</v>
+        <v>-1.01923076923077</v>
       </c>
       <c r="AQ19">
-        <v>3.166344887632517</v>
+        <v>2.992537313432836</v>
       </c>
       <c r="AR19">
-        <v>-1.629487652434692</v>
+        <v>-1.306666666666667</v>
       </c>
       <c r="AS19">
-        <v>-0.2723995244448915</v>
+        <v>-0.09117938553022779</v>
       </c>
       <c r="AT19">
-        <v>-0.75323537675362</v>
+        <v>-0.7121951219512168</v>
       </c>
       <c r="AU19">
-        <v>9.752588635747578</v>
+        <v>13.07371794871797</v>
       </c>
       <c r="AV19">
-        <v>-2.895790950871158</v>
+        <v>-3.593260971586231</v>
       </c>
       <c r="AW19">
-        <v>-0.4300300322168356</v>
+        <v>-0.4118616144975289</v>
       </c>
       <c r="AX19">
-        <v>-0.3583845582162715</v>
+        <v>-0.401231567006968</v>
       </c>
       <c r="AY19">
-        <v>-1.126905393284028</v>
+        <v>-0.8111888111888114</v>
       </c>
       <c r="AZ19">
-        <v>0.7364034262891741</v>
+        <v>1.052631578947369</v>
       </c>
       <c r="BA19">
-        <v>0.6172959847344254</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="BB19">
-        <v>-0.7196851523405303</v>
+        <v>-0.715657174666365</v>
       </c>
       <c r="BC19">
-        <v>0.4575109666852651</v>
+        <v>0.8695652173913033</v>
       </c>
       <c r="BD19">
-        <v>0.3647157590431638</v>
+        <v>0.6875</v>
       </c>
       <c r="BE19">
-        <v>-0.391137440706841</v>
+        <v>-0.1143589736527246</v>
       </c>
       <c r="BF19">
-        <v>0.4488776146339609</v>
+        <v>0.4695962654474987</v>
       </c>
       <c r="BG19">
-        <v>-0.1366530526676343</v>
+        <v>-0.2975144149857527</v>
       </c>
       <c r="BH19">
-        <v>0.8460639803606534</v>
+        <v>0.8333333333333338</v>
       </c>
       <c r="BI19">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ19">
-        <v>1.623427861773096</v>
+        <v>1.648967551622418</v>
       </c>
       <c r="BK19">
-        <v>-0.03327309432884451</v>
+        <v>0.05251297801484719</v>
       </c>
       <c r="BL19">
-        <v>0.8452425517293739</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="BM19">
-        <v>0.6823820765800862</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BN19">
         <v>0</v>
@@ -5119,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>-0.5144831177088713</v>
+        <v>-0.5</v>
       </c>
       <c r="BS19">
-        <v>10.23731183688082</v>
+        <v>8.735293532820407</v>
       </c>
       <c r="BT19">
-        <v>-2.539408653075319</v>
+        <v>-2.473327721132765</v>
       </c>
       <c r="BU19">
         <v>1</v>
@@ -5134,16 +5134,16 @@
         <v>1</v>
       </c>
       <c r="BW19">
-        <v>0.6452272263667777</v>
+        <v>0.663046949856276</v>
       </c>
       <c r="BX19">
-        <v>-0.3620032059250601</v>
+        <v>-0.4584771281191168</v>
       </c>
       <c r="BY19">
-        <v>-0.129375327721729</v>
+        <v>-0.08237145855194125</v>
       </c>
       <c r="BZ19">
-        <v>-0.4229969820873365</v>
+        <v>-0.2830707256573025</v>
       </c>
       <c r="CA19">
         <v>0</v>
@@ -5157,25 +5157,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06247378019886065</v>
+        <v>0.28</v>
       </c>
       <c r="D20">
-        <v>-0.2856020796398627</v>
+        <v>-0.5405405405405409</v>
       </c>
       <c r="E20">
-        <v>0.2562544198494856</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="F20">
-        <v>0.5521395049738919</v>
+        <v>0.4209713250234465</v>
       </c>
       <c r="G20">
-        <v>0.03407869534056475</v>
+        <v>-0.07272727272727282</v>
       </c>
       <c r="H20">
-        <v>0.3355894536040699</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="I20">
-        <v>0.2547985647902215</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5199,16 +5199,16 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>-0.02222222222222222</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="R20">
-        <v>-0.1042420966749279</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="S20">
-        <v>-0.3888854555903773</v>
+        <v>-0.3728813559322034</v>
       </c>
       <c r="T20">
-        <v>-0.3639691113475546</v>
+        <v>-0.2954545454545454</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -5265,88 +5265,88 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>-0.4427079432018235</v>
+        <v>-0.3650793650793651</v>
       </c>
       <c r="AN20">
-        <v>1.535804316497059</v>
+        <v>1.487738419618528</v>
       </c>
       <c r="AO20">
-        <v>2.041246828321522</v>
+        <v>2.196426409733803</v>
       </c>
       <c r="AP20">
-        <v>-0.9243506628439339</v>
+        <v>-0.6730769230769239</v>
       </c>
       <c r="AQ20">
-        <v>0.1663448876325165</v>
+        <v>0.3059701492537312</v>
       </c>
       <c r="AR20">
-        <v>0.8301163512403148</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="AS20">
-        <v>-0.3095783664312525</v>
+        <v>-0.1506442021803766</v>
       </c>
       <c r="AT20">
-        <v>0.5593659352532672</v>
+        <v>0.5365853658536591</v>
       </c>
       <c r="AU20">
-        <v>0.1241347758231152</v>
+        <v>0.2788461538461547</v>
       </c>
       <c r="AV20">
-        <v>-0.1349156652612749</v>
+        <v>-0.3161525378512915</v>
       </c>
       <c r="AW20">
-        <v>0.3301729784281047</v>
+        <v>0.6293245469522242</v>
       </c>
       <c r="AX20">
-        <v>0.623661425367534</v>
+        <v>0.8672824501701507</v>
       </c>
       <c r="AY20">
-        <v>-0.001749785888316401</v>
+        <v>0.1958041958041959</v>
       </c>
       <c r="AZ20">
-        <v>-0.1841008565722927</v>
+        <v>0</v>
       </c>
       <c r="BA20">
-        <v>-0.06128996411860491</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="BB20">
-        <v>-0.08952792897403075</v>
+        <v>-0.03755959857519118</v>
       </c>
       <c r="BC20">
-        <v>0.182131571193329</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="BD20">
-        <v>-0.01256737004334056</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="BE20">
-        <v>-0.06842419601072534</v>
+        <v>0.3210217798848668</v>
       </c>
       <c r="BF20">
-        <v>-0.2565014940765491</v>
+        <v>-0.3161180202667871</v>
       </c>
       <c r="BG20">
-        <v>-0.1318550060307038</v>
+        <v>-0.2914447362143636</v>
       </c>
       <c r="BH20">
-        <v>-0.2426007176884632</v>
+        <v>-0.1666666666666669</v>
       </c>
       <c r="BI20">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ20">
-        <v>-0.09728941653111611</v>
+        <v>-0.004916420845624383</v>
       </c>
       <c r="BK20">
-        <v>-0.03327309432884451</v>
+        <v>0.05251297801484719</v>
       </c>
       <c r="BL20">
-        <v>0.6339319137970308</v>
+        <v>1</v>
       </c>
       <c r="BM20">
-        <v>1.023573114870128</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BN20">
-        <v>1.002260533928439</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BO20">
         <v>1</v>
@@ -5358,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="BR20">
-        <v>0.4855168822911287</v>
+        <v>0.5</v>
       </c>
       <c r="BS20">
-        <v>1.260804689510571</v>
+        <v>1.123109168505481</v>
       </c>
       <c r="BT20">
-        <v>-0.882842996509663</v>
+        <v>-0.8637017438876322</v>
       </c>
       <c r="BU20">
         <v>0</v>
@@ -5373,16 +5373,16 @@
         <v>1</v>
       </c>
       <c r="BW20">
-        <v>-0.4721870300294846</v>
+        <v>-0.4270657480494595</v>
       </c>
       <c r="BX20">
-        <v>0.9812653315001975</v>
+        <v>1.710732071878007</v>
       </c>
       <c r="BY20">
-        <v>0.007283621546613849</v>
+        <v>0.07513116474291708</v>
       </c>
       <c r="BZ20">
-        <v>1.373186399102037</v>
+        <v>1.97094473582513</v>
       </c>
       <c r="CA20">
         <v>0</v>
@@ -5396,25 +5396,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6790334358317972</v>
+        <v>0.92</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-0.2162162162162163</v>
       </c>
       <c r="E21">
-        <v>-0.5637597236688683</v>
+        <v>-0.631578947368421</v>
       </c>
       <c r="F21">
-        <v>-0.732993966730639</v>
+        <v>-0.5912805087864962</v>
       </c>
       <c r="G21">
-        <v>-0.6464164332465067</v>
+        <v>-0.6909090909090909</v>
       </c>
       <c r="H21">
-        <v>0.6711789072081399</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="I21">
-        <v>0.3417550865293519</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -5438,16 +5438,16 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.2666666666666667</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="R21">
-        <v>0.1042420966749279</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="S21">
-        <v>0.3370340615116604</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="T21">
-        <v>0.2426460742317033</v>
+        <v>0.6136363636363639</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -5504,88 +5504,88 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>1.48136888686764</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="AN21">
-        <v>0.1682895205517806</v>
+        <v>0.2343324250681197</v>
       </c>
       <c r="AO21">
-        <v>0.1580076569467574</v>
+        <v>0.2509011179050091</v>
       </c>
       <c r="AP21">
-        <v>0.6067522386727817</v>
+        <v>0.5576923076923072</v>
       </c>
       <c r="AQ21">
-        <v>-0.2836551123674836</v>
+        <v>-0.09701492537313459</v>
       </c>
       <c r="AR21">
-        <v>-2.182898553261568</v>
+        <v>-1.786666666666667</v>
       </c>
       <c r="AS21">
-        <v>-0.1484700511570218</v>
+        <v>0.1070366699702678</v>
       </c>
       <c r="AT21">
-        <v>-0.4866132352522216</v>
+        <v>-0.4585365853658519</v>
       </c>
       <c r="AU21">
-        <v>0.9586650953456262</v>
+        <v>1.387820512820515</v>
       </c>
       <c r="AV21">
-        <v>0.06808987044533418</v>
+        <v>-0.07518868242960482</v>
       </c>
       <c r="AW21">
-        <v>-0.5775799836500307</v>
+        <v>-0.6139483800109831</v>
       </c>
       <c r="AX21">
-        <v>-0.3272722173975714</v>
+        <v>-0.3610435909901151</v>
       </c>
       <c r="AY21">
-        <v>-0.173648559240439</v>
+        <v>0.04195804195804206</v>
       </c>
       <c r="AZ21">
-        <v>0.1841008565722944</v>
+        <v>0.4210526315789481</v>
       </c>
       <c r="BA21">
-        <v>0.2163133785939984</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="BB21">
-        <v>0.6590599606826426</v>
+        <v>0.7679784713616316</v>
       </c>
       <c r="BC21">
-        <v>0.04444187344736072</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="BD21">
-        <v>0.05602956251784205</v>
+        <v>0.3125</v>
       </c>
       <c r="BE21">
-        <v>0.2201977896839336</v>
+        <v>0.7104091374988539</v>
       </c>
       <c r="BF21">
-        <v>0.1923761205574118</v>
+        <v>0.1838819797332129</v>
       </c>
       <c r="BG21">
-        <v>0.01332555801443614</v>
+        <v>-0.1077867907453667</v>
       </c>
       <c r="BH21">
-        <v>-0.2426007176884632</v>
+        <v>-0.1666666666666669</v>
       </c>
       <c r="BI21">
         <v>1.5</v>
       </c>
       <c r="BJ21">
-        <v>0.7865986503266952</v>
+        <v>0.8446411012782689</v>
       </c>
       <c r="BK21">
-        <v>1.256983563534138</v>
+        <v>1.390959766126065</v>
       </c>
       <c r="BL21">
-        <v>-0.2113106379323439</v>
+        <v>0</v>
       </c>
       <c r="BM21">
-        <v>1.705955191450214</v>
+        <v>1.666666666666665</v>
       </c>
       <c r="BN21">
-        <v>1.336347378571252</v>
+        <v>1.333333333333332</v>
       </c>
       <c r="BO21">
         <v>2</v>
@@ -5597,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="BR21">
-        <v>-0.5144831177088713</v>
+        <v>-0.5</v>
       </c>
       <c r="BS21">
-        <v>0.4759734635109863</v>
+        <v>0.457562994576307</v>
       </c>
       <c r="BT21">
-        <v>-0.478802592469259</v>
+        <v>-0.4711100421205267</v>
       </c>
       <c r="BU21">
         <v>1</v>
@@ -5612,16 +5612,16 @@
         <v>1</v>
       </c>
       <c r="BW21">
-        <v>1.123584543226855</v>
+        <v>1.129716658301775</v>
       </c>
       <c r="BX21">
-        <v>-0.2131714340845257</v>
+        <v>-0.2181325955603587</v>
       </c>
       <c r="BY21">
-        <v>-0.1374783566923369</v>
+        <v>-0.09171038824763905</v>
       </c>
       <c r="BZ21">
-        <v>-0.2743952126641951</v>
+        <v>-0.09659161144702919</v>
       </c>
       <c r="CA21">
         <v>1</v>
@@ -5635,25 +5635,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>-1.170645531067012</v>
+        <v>-1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.2162162162162163</v>
       </c>
       <c r="E22">
-        <v>0.6150106076387654</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="F22">
-        <v>0.8160637585440567</v>
+        <v>0.6288546426285635</v>
       </c>
       <c r="G22">
-        <v>0.3943408222396022</v>
+        <v>0.254545454545454</v>
       </c>
       <c r="H22">
-        <v>0.6711789072081399</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="I22">
-        <v>0.6895811734858737</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -5677,16 +5677,16 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>-0.9555555555555556</v>
+        <v>-0.9558823529411765</v>
       </c>
       <c r="R22">
-        <v>-0.3752715480297404</v>
+        <v>-0.5526315789473685</v>
       </c>
       <c r="S22">
-        <v>-0.2851826674329434</v>
+        <v>-0.2372881355932203</v>
       </c>
       <c r="T22">
-        <v>-0.4549613891844432</v>
+        <v>-0.4318181818181817</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -5743,88 +5743,88 @@
         <v>1</v>
       </c>
       <c r="AM22">
-        <v>-0.4086534860324524</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="AN22">
-        <v>-0.5154678774208584</v>
+        <v>-0.3923705722070846</v>
       </c>
       <c r="AO22">
-        <v>-0.03784921687621823</v>
+        <v>0.04856648755481434</v>
       </c>
       <c r="AP22">
-        <v>-1.450667285240305</v>
+        <v>-1.096153846153847</v>
       </c>
       <c r="AQ22">
-        <v>0.6996782209658501</v>
+        <v>0.7835820895522387</v>
       </c>
       <c r="AR22">
-        <v>0.89160645133219</v>
+        <v>0.88</v>
       </c>
       <c r="AS22">
-        <v>-0.2104347878009567</v>
+        <v>0.007928642220020007</v>
       </c>
       <c r="AT22">
-        <v>0.5593659352532672</v>
+        <v>0.5365853658536591</v>
       </c>
       <c r="AU22">
-        <v>0.09036765306786898</v>
+        <v>0.2339743589743596</v>
       </c>
       <c r="AV22">
-        <v>0.3522976204345868</v>
+        <v>0.2621607151607566</v>
       </c>
       <c r="AW22">
-        <v>-0.1317225217105932</v>
+        <v>-0.0032948929159802</v>
       </c>
       <c r="AX22">
-        <v>-0.4015403858035005</v>
+        <v>-0.4569761789013126</v>
       </c>
       <c r="AY22">
-        <v>-0.4861917835170255</v>
+        <v>-0.2377622377622377</v>
       </c>
       <c r="AZ22">
-        <v>-0.5523025697168797</v>
+        <v>-0.4210526315789481</v>
       </c>
       <c r="BA22">
-        <v>-0.4622725702590319</v>
+        <v>-0.35</v>
       </c>
       <c r="BB22">
-        <v>-0.7092614190482832</v>
+        <v>-0.7044404369742499</v>
       </c>
       <c r="BC22">
-        <v>-0.506316917536512</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="BD22">
-        <v>-0.4927458979716188</v>
+        <v>-0.3541666666666667</v>
       </c>
       <c r="BE22">
-        <v>-0.6491726764482122</v>
+        <v>-0.4624809587981346</v>
       </c>
       <c r="BF22">
-        <v>-0.1923761205574118</v>
+        <v>-0.2446894488382156</v>
       </c>
       <c r="BG22">
-        <v>0.4022944751492367</v>
+        <v>0.3842710314715692</v>
       </c>
       <c r="BH22">
-        <v>1.571840445726731</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="BI22">
         <v>0.9999999999999994</v>
       </c>
       <c r="BJ22">
-        <v>1.298107948276818</v>
+        <v>1.336283185840707</v>
       </c>
       <c r="BK22">
-        <v>1.016677882270258</v>
+        <v>1.141678845704205</v>
       </c>
       <c r="BL22">
-        <v>-0.4226212758646879</v>
+        <v>-0.2500000000000003</v>
       </c>
       <c r="BM22">
-        <v>-1.023573114870128</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN22">
-        <v>-0.3340868446428135</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO22">
         <v>1</v>
@@ -5836,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>-0.01448311770887134</v>
+        <v>0</v>
       </c>
       <c r="BS22">
-        <v>-0.2598058108636245</v>
+        <v>-0.1663865434822935</v>
       </c>
       <c r="BT22">
-        <v>0.4908943772277107</v>
+        <v>0.4711100421205267</v>
       </c>
       <c r="BU22">
         <v>0</v>
@@ -5851,16 +5851,16 @@
         <v>1</v>
       </c>
       <c r="BW22">
-        <v>-0.6994862635003465</v>
+        <v>-0.6488114249212942</v>
       </c>
       <c r="BX22">
-        <v>1.408142463915075</v>
+        <v>2.400084779176316</v>
       </c>
       <c r="BY22">
-        <v>-0.1110752285858616</v>
+        <v>-0.06128016789087097</v>
       </c>
       <c r="BZ22">
-        <v>2.009720458157549</v>
+        <v>2.769725988283466</v>
       </c>
       <c r="CA22">
         <v>0</v>
@@ -5874,25 +5874,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-0.5540858754340758</v>
+        <v>-0.36</v>
       </c>
       <c r="D23">
-        <v>1.332809704986026</v>
+        <v>1.297297297297298</v>
       </c>
       <c r="E23">
-        <v>1.793780938946399</v>
+        <v>1.305263157894737</v>
       </c>
       <c r="F23">
-        <v>1.231329824074335</v>
+        <v>0.9559442762014329</v>
       </c>
       <c r="G23">
-        <v>1.715301954202742</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="H23">
-        <v>0.134235781441628</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="I23">
-        <v>-0.3104188265141263</v>
+        <v>-0.08080808080808081</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -5916,16 +5916,16 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>-0.6</v>
+        <v>-0.4852941176470588</v>
       </c>
       <c r="R23">
-        <v>-0.3335747093597693</v>
+        <v>-0.4473684210526316</v>
       </c>
       <c r="S23">
-        <v>-0.6999938200626793</v>
+        <v>-0.7796610169491526</v>
       </c>
       <c r="T23">
-        <v>-0.545953667021332</v>
+        <v>-0.5681818181818181</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -5982,85 +5982,85 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>-0.3745990288630814</v>
+        <v>-0.3015873015873016</v>
       </c>
       <c r="AN23">
-        <v>-0.08168708781858265</v>
+        <v>0.005214480342546433</v>
       </c>
       <c r="AO23">
-        <v>-0.1297893717203279</v>
+        <v>-0.04641448953122113</v>
       </c>
       <c r="AP23">
-        <v>0.2377753345948077</v>
+        <v>0.2610921118767272</v>
       </c>
       <c r="AQ23">
-        <v>0.8127705532631821</v>
+        <v>0.8848588050423869</v>
       </c>
       <c r="AR23">
-        <v>-0.1537252502296879</v>
+        <v>-0.02666666666666667</v>
       </c>
       <c r="AS23">
-        <v>0.3968196313096048</v>
+        <v>0.9791873141724485</v>
       </c>
       <c r="AT23">
-        <v>-0.4661038397521137</v>
+        <v>-0.4390243902439004</v>
       </c>
       <c r="AU23">
-        <v>1.002079967459514</v>
+        <v>1.445512820512823</v>
       </c>
       <c r="AV23">
-        <v>-0.7439322723811019</v>
+        <v>-1.039044104116352</v>
       </c>
       <c r="AW23">
-        <v>-0.4204072092972794</v>
+        <v>-0.398682042833608</v>
       </c>
       <c r="AX23">
-        <v>-0.3940132065731698</v>
+        <v>-0.4472532814778804</v>
       </c>
       <c r="AY23">
-        <v>-0.9706337811457347</v>
+        <v>-0.6713286713286715</v>
       </c>
       <c r="AZ23">
-        <v>-0.1841008565722927</v>
+        <v>0</v>
       </c>
       <c r="BA23">
-        <v>-0.2155140434033845</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="BB23">
-        <v>-0.9871366107030461</v>
+        <v>-1.003455487393463</v>
       </c>
       <c r="BC23">
-        <v>-0.2309375220445753</v>
+        <v>0</v>
       </c>
       <c r="BD23">
-        <v>-0.2526566340074797</v>
+        <v>-0.0625</v>
       </c>
       <c r="BE23">
-        <v>-0.6660200984705141</v>
+        <v>-0.4852102499437232</v>
       </c>
       <c r="BF23">
-        <v>-0.1282507470382745</v>
+        <v>-0.1732608774096442</v>
       </c>
       <c r="BG23">
-        <v>0.1661561803093113</v>
+        <v>0.0855487172135215</v>
       </c>
       <c r="BH23">
-        <v>0.4831757476776143</v>
+        <v>0.5</v>
       </c>
       <c r="BI23">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ23">
-        <v>0.4633247740222182</v>
+        <v>0.5339233038348081</v>
       </c>
       <c r="BK23">
-        <v>-0.3401249642504133</v>
+        <v>-0.265799581908451</v>
       </c>
       <c r="BL23">
-        <v>0</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="BM23">
-        <v>0.6823820765800862</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BN23">
         <v>0</v>
@@ -6075,13 +6075,13 @@
         <v>0</v>
       </c>
       <c r="BR23">
-        <v>-0.2644831177088713</v>
+        <v>-0.25</v>
       </c>
       <c r="BS23">
-        <v>1.898480060635234</v>
+        <v>1.663865434822935</v>
       </c>
       <c r="BT23">
-        <v>-1.084863198529865</v>
+        <v>-1.059997594771185</v>
       </c>
       <c r="BU23">
         <v>0</v>
@@ -6090,16 +6090,16 @@
         <v>0</v>
       </c>
       <c r="BW23">
-        <v>-0.4624589969920485</v>
+        <v>-0.4175753980928049</v>
       </c>
       <c r="BX23">
-        <v>-0.1634848592227189</v>
+        <v>-0.1378950464004803</v>
       </c>
       <c r="BY23">
-        <v>-0.1282372618550706</v>
+        <v>-0.08105981112277022</v>
       </c>
       <c r="BZ23">
-        <v>-0.7476062055125913</v>
+        <v>-0.6904201178200555</v>
       </c>
       <c r="CA23">
         <v>0</v>
@@ -6113,25 +6113,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-0.6311558323881929</v>
+        <v>-0.44</v>
       </c>
       <c r="D24">
-        <v>1.142408318559451</v>
+        <v>1.081081081081082</v>
       </c>
       <c r="E24">
-        <v>0.5637597236688683</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="F24">
-        <v>-0.0328465189953977</v>
+        <v>-0.03980040690467829</v>
       </c>
       <c r="G24">
-        <v>0.6745446987166328</v>
+        <v>0.5090909090909097</v>
       </c>
       <c r="H24">
-        <v>-0.6711789072081399</v>
+        <v>-0.6612903225806451</v>
       </c>
       <c r="I24">
-        <v>0.1243637821815259</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -6155,16 +6155,16 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>-0.1777777777777778</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="R24">
-        <v>-0.2084841933498558</v>
+        <v>-0.131578947368421</v>
       </c>
       <c r="S24">
-        <v>-0.2333312733542264</v>
+        <v>-0.1694915254237288</v>
       </c>
       <c r="T24">
-        <v>-0.2426460742317031</v>
+        <v>-0.1136363636363636</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -6221,88 +6221,88 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>-0.05108168575405655</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>-0.3965535473386604</v>
+        <v>-0.2833787465940057</v>
       </c>
       <c r="AO24">
-        <v>-0.1433106104732048</v>
+        <v>-0.06038292878759789</v>
       </c>
       <c r="AP24">
-        <v>-0.8286567314991391</v>
+        <v>-0.5961538461538469</v>
       </c>
       <c r="AQ24">
-        <v>-1.183655112367484</v>
+        <v>-0.9029850746268659</v>
       </c>
       <c r="AR24">
-        <v>0.3996856505971886</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="AS24">
-        <v>1.43782720692771</v>
+        <v>2.644202180376611</v>
       </c>
       <c r="AT24">
-        <v>0.354271980252191</v>
+        <v>0.3414634146341473</v>
       </c>
       <c r="AU24">
-        <v>-0.4981450578092777</v>
+        <v>-0.5480769230769236</v>
       </c>
       <c r="AV24">
-        <v>0.514702048999874</v>
+        <v>0.454931799498106</v>
       </c>
       <c r="AW24">
-        <v>-0.1253073064308891</v>
+        <v>0.005491488193300385</v>
       </c>
       <c r="AX24">
-        <v>0.1012751867825869</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="AY24">
-        <v>-0.8924979750765881</v>
+        <v>-0.6013986013986015</v>
       </c>
       <c r="AZ24">
-        <v>-0.1841008565722927</v>
+        <v>0</v>
       </c>
       <c r="BA24">
-        <v>-0.1846692275464286</v>
+        <v>-0.05</v>
       </c>
       <c r="BB24">
-        <v>-0.5407434334010119</v>
+        <v>-0.5231021401842734</v>
       </c>
       <c r="BC24">
-        <v>-0.506316917536512</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="BD24">
-        <v>-0.4241489654104362</v>
+        <v>-0.2708333333333333</v>
       </c>
       <c r="BE24">
-        <v>-0.635965755427314</v>
+        <v>-0.4446631613556878</v>
       </c>
       <c r="BF24">
-        <v>0.2565014940765491</v>
+        <v>0.2553105511617844</v>
       </c>
       <c r="BG24">
-        <v>0.5229372408915814</v>
+        <v>0.5368878961163945</v>
       </c>
       <c r="BH24">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI24">
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>-0.09524337933931516</v>
+        <v>-0.002949852507374183</v>
       </c>
       <c r="BK24">
-        <v>-0.3438219747313959</v>
+        <v>-0.269634672991864</v>
       </c>
       <c r="BL24">
-        <v>0.6339319137970308</v>
+        <v>1</v>
       </c>
       <c r="BM24">
-        <v>-2.047146229740257</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="BN24">
-        <v>0.3340868446428135</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BO24">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="BR24">
-        <v>0.2355168822911287</v>
+        <v>0.25</v>
       </c>
       <c r="BS24">
-        <v>-0.5050655689884948</v>
+        <v>-0.3743697228351603</v>
       </c>
       <c r="BT24">
-        <v>0.6525105388438723</v>
+        <v>0.6281467228273688</v>
       </c>
       <c r="BU24">
         <v>1</v>
@@ -6329,16 +6329,16 @@
         <v>1</v>
       </c>
       <c r="BW24">
-        <v>0.004860743921707217</v>
+        <v>0.03832641328648984</v>
       </c>
       <c r="BX24">
-        <v>0.5392507121202537</v>
+        <v>0.9969342331152184</v>
       </c>
       <c r="BY24">
-        <v>2.499192643181886</v>
+        <v>2.947114375655824</v>
       </c>
       <c r="BZ24">
-        <v>-0.409108966253398</v>
+        <v>-0.2656427710582115</v>
       </c>
       <c r="CA24">
         <v>0</v>
@@ -6352,25 +6352,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1395437371529777</v>
+        <v>0.36</v>
       </c>
       <c r="D25">
-        <v>1.428010398199314</v>
+        <v>1.405405405405406</v>
       </c>
       <c r="E25">
-        <v>1.178770331307634</v>
+        <v>0.8</v>
       </c>
       <c r="F25">
-        <v>0.4775901932666425</v>
+        <v>0.3622516051294167</v>
       </c>
       <c r="G25">
-        <v>1.234952451670691</v>
+        <v>1.018181818181818</v>
       </c>
       <c r="H25">
-        <v>-1.00676836081221</v>
+        <v>-0.9838709677419355</v>
       </c>
       <c r="I25">
-        <v>1.99392899957283</v>
+        <v>2.060606060606061</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -6394,16 +6394,16 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>0.6</v>
+        <v>1.102941176470588</v>
       </c>
       <c r="R25">
-        <v>0.5212104833746395</v>
+        <v>1.710526315789474</v>
       </c>
       <c r="S25">
-        <v>0.9073993963775472</v>
+        <v>1.322033898305085</v>
       </c>
       <c r="T25">
-        <v>0.9099227783688867</v>
+        <v>1.613636363636364</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -6460,82 +6460,82 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>2.503002601948771</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="AN25">
-        <v>-0.6224907744948368</v>
+        <v>-0.4904632152588558</v>
       </c>
       <c r="AO25">
-        <v>-0.6254198383451446</v>
+        <v>-0.5584374034957693</v>
       </c>
       <c r="AP25">
-        <v>-2.407606598688253</v>
+        <v>-1.865384615384617</v>
       </c>
       <c r="AQ25">
-        <v>0.9830115542991834</v>
+        <v>1.037313432835821</v>
       </c>
       <c r="AR25">
-        <v>-0.89160645133219</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AS25">
-        <v>0.74382215651564</v>
+        <v>1.534192269573836</v>
       </c>
       <c r="AT25">
-        <v>-1.409536032757064</v>
+        <v>-1.336585365853656</v>
       </c>
       <c r="AU25">
-        <v>1.412109315201789</v>
+        <v>1.990384615384619</v>
       </c>
       <c r="AV25">
-        <v>-1.14994334379432</v>
+        <v>-1.520971814959725</v>
       </c>
       <c r="AW25">
-        <v>0.9973553675173351</v>
+        <v>1.543108182317408</v>
       </c>
       <c r="AX25">
-        <v>2.069883461488396</v>
+        <v>2.735375141792254</v>
       </c>
       <c r="AY25">
-        <v>-0.3455473325925615</v>
+        <v>-0.1118881118881118</v>
       </c>
       <c r="AZ25">
-        <v>0.5523025697168814</v>
+        <v>0.8421052631578961</v>
       </c>
       <c r="BA25">
-        <v>0.4939167213066017</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="BB25">
-        <v>-0.1144439116930188</v>
+        <v>-0.06437110983172241</v>
       </c>
       <c r="BC25">
-        <v>0.4575109666852651</v>
+        <v>0.8695652173913033</v>
       </c>
       <c r="BD25">
-        <v>0.4333126916043464</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="BE25">
-        <v>0.04643511784031559</v>
+        <v>0.4759814396979207</v>
       </c>
       <c r="BF25">
-        <v>0.06412537351913727</v>
+        <v>0.04102483687607007</v>
       </c>
       <c r="BG25">
-        <v>-0.3565836313948681</v>
+        <v>-0.5757334624216921</v>
       </c>
       <c r="BH25">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI25">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ25">
-        <v>0.06488167827854624</v>
+        <v>0.150955887688188</v>
       </c>
       <c r="BK25">
-        <v>0.0405706357157876</v>
+        <v>0.1291147166674413</v>
       </c>
       <c r="BL25">
-        <v>0.211310637932343</v>
+        <v>0.4999999999999994</v>
       </c>
       <c r="BM25">
         <v>0</v>
@@ -6553,13 +6553,13 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>0.1252604475494001</v>
+        <v>0.1397435652582715</v>
       </c>
       <c r="BS25">
-        <v>0.2452022983257962</v>
+        <v>0.2618663136159321</v>
       </c>
       <c r="BT25">
-        <v>-0.1846109076109073</v>
+        <v>-0.1852544369649528</v>
       </c>
       <c r="BU25">
         <v>1</v>
@@ -6568,16 +6568,16 @@
         <v>1</v>
       </c>
       <c r="BW25">
-        <v>1.941113473488309</v>
+        <v>1.927271068120637</v>
       </c>
       <c r="BX25">
-        <v>1.028814849378701</v>
+        <v>1.787518543654665</v>
       </c>
       <c r="BY25">
-        <v>0.5371670890627733</v>
+        <v>0.6858342077649527</v>
       </c>
       <c r="BZ25">
-        <v>0.4195426451715963</v>
+        <v>0.7742251866875497</v>
       </c>
       <c r="CA25">
         <v>0</v>
@@ -6591,25 +6591,25 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.6790334358317972</v>
+        <v>0.92</v>
       </c>
       <c r="D26">
-        <v>0.5712041592797253</v>
+        <v>0.4324324324324327</v>
       </c>
       <c r="E26">
-        <v>0.05125088396989712</v>
+        <v>-0.1263157894736842</v>
       </c>
       <c r="F26">
-        <v>-0.2904072876663202</v>
+        <v>-0.2426714441509807</v>
       </c>
       <c r="G26">
-        <v>0.074107820551569</v>
+        <v>-0.03636363636363641</v>
       </c>
       <c r="H26">
-        <v>0.033558945360407</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="I26">
-        <v>0.03740726044239542</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -6633,16 +6633,16 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>0.3555555555555556</v>
+        <v>0.7794117647058824</v>
       </c>
       <c r="R26">
-        <v>0.2084841933498558</v>
+        <v>0.9210526315789475</v>
       </c>
       <c r="S26">
-        <v>0.2333312733542264</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="T26">
-        <v>0.1213230371158517</v>
+        <v>0.4318181818181819</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -6699,88 +6699,88 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>-0.05108168575405655</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>0.6082725418559137</v>
+        <v>0.6376021798365122</v>
       </c>
       <c r="AO26">
-        <v>0.8209078452706744</v>
+        <v>0.9357260206287447</v>
       </c>
       <c r="AP26">
-        <v>-0.302340109102768</v>
+        <v>-0.1730769230769237</v>
       </c>
       <c r="AQ26">
-        <v>-0.06698844570081669</v>
+        <v>0.09701492537313426</v>
       </c>
       <c r="AR26">
-        <v>-0.5841559508728141</v>
+        <v>-0.4</v>
       </c>
       <c r="AS26">
-        <v>-0.2815757927261852</v>
+        <v>-0.1058561501018591</v>
       </c>
       <c r="AT26">
-        <v>-0.8762917497542659</v>
+        <v>-0.8292682926829243</v>
       </c>
       <c r="AU26">
-        <v>0.1241347758231152</v>
+        <v>0.2788461538461547</v>
       </c>
       <c r="AV26">
-        <v>-0.3379212009678839</v>
+        <v>-0.5571163932729783</v>
       </c>
       <c r="AW26">
-        <v>-0.5519191225312142</v>
+        <v>-0.5788028555738606</v>
       </c>
       <c r="AX26">
-        <v>-0.4010385738548118</v>
+        <v>-0.4563279857397505</v>
       </c>
       <c r="AY26">
-        <v>-0.5487004283723429</v>
+        <v>-0.2937062937062937</v>
       </c>
       <c r="AZ26">
-        <v>-0.1841008565722927</v>
+        <v>0</v>
       </c>
       <c r="BA26">
-        <v>-0.2155140434033845</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="BB26">
-        <v>-0.2841449102431909</v>
+        <v>-0.2469824193750181</v>
       </c>
       <c r="BC26">
-        <v>0.04444187344736072</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="BD26">
-        <v>0.05602956251784205</v>
+        <v>0.3125</v>
       </c>
       <c r="BE26">
-        <v>-0.007678994082491741</v>
+        <v>0.4029746969837968</v>
       </c>
       <c r="BF26">
-        <v>-0.70537910871051</v>
+        <v>-0.816118020266787</v>
       </c>
       <c r="BG26">
-        <v>-0.4271862356590287</v>
+        <v>-0.6650479607445166</v>
       </c>
       <c r="BH26">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI26">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ26">
-        <v>-0.3653202886569801</v>
+        <v>-0.2625368731563419</v>
       </c>
       <c r="BK26">
-        <v>-0.2994578489596032</v>
+        <v>-0.2236135799909057</v>
       </c>
       <c r="BL26">
-        <v>-0.6339319137970318</v>
+        <v>-0.5000000000000006</v>
       </c>
       <c r="BM26">
-        <v>-1.023573114870128</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN26">
-        <v>0.3340868446428135</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BO26">
         <v>0</v>
@@ -6792,13 +6792,13 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>0.2355168822911287</v>
+        <v>0.25</v>
       </c>
       <c r="BS26">
-        <v>0.2307137053861161</v>
+        <v>0.2495798152234402</v>
       </c>
       <c r="BT26">
-        <v>-0.2767823904490569</v>
+        <v>-0.2748141912369739</v>
       </c>
       <c r="BU26">
         <v>1</v>
@@ -6807,16 +6807,16 @@
         <v>1</v>
       </c>
       <c r="BW26">
-        <v>-0.151723172469331</v>
+        <v>-0.1144317196696629</v>
       </c>
       <c r="BX26">
-        <v>0.1068528491651758</v>
+        <v>0.2986662425769223</v>
       </c>
       <c r="BY26">
-        <v>0.05462716159960407</v>
+        <v>0.1296956977964323</v>
       </c>
       <c r="BZ26">
-        <v>-0.5711358176493466</v>
+        <v>-0.4689689080476062</v>
       </c>
       <c r="CA26">
         <v>0</v>
@@ -6830,25 +6830,25 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0.9873132636482654</v>
+        <v>1.24</v>
       </c>
       <c r="D27">
-        <v>-1.713612477839174</v>
+        <v>-2.162162162162161</v>
       </c>
       <c r="E27">
-        <v>-0.7687632595484567</v>
+        <v>-0.8</v>
       </c>
       <c r="F27">
-        <v>0.09583727024884575</v>
+        <v>0.06155902735807368</v>
       </c>
       <c r="G27">
-        <v>-1.246853311411571</v>
+        <v>-1.236363636363637</v>
       </c>
       <c r="H27">
-        <v>0.4362662896852909</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="I27">
-        <v>0.7330594343554389</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6872,16 +6872,16 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0.2444444444444444</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="R27">
-        <v>0.3752715480297404</v>
+        <v>1.342105263157895</v>
       </c>
       <c r="S27">
-        <v>1.840724489794453</v>
+        <v>2.542372881355932</v>
       </c>
       <c r="T27">
-        <v>4.519283132565471</v>
+        <v>7.022727272727272</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -6938,88 +6938,88 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>-0.05108168575405655</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>-0.04685325829118406</v>
+        <v>0.03714168937329698</v>
       </c>
       <c r="AO27">
-        <v>-0.1238058921323289</v>
+        <v>-0.04023311275840507</v>
       </c>
       <c r="AP27">
-        <v>-0.07384885529773463</v>
+        <v>0.0105946018117958</v>
       </c>
       <c r="AQ27">
-        <v>-0.1890829850795669</v>
+        <v>-0.01232346810037338</v>
       </c>
       <c r="AR27">
-        <v>-2.613329253904695</v>
+        <v>-2.16</v>
       </c>
       <c r="AS27">
-        <v>0.7487793354471547</v>
+        <v>1.542120911793856</v>
       </c>
       <c r="AT27">
-        <v>-2.47602459876266</v>
+        <v>-2.351219512195117</v>
       </c>
       <c r="AU27">
-        <v>1.484467435391602</v>
+        <v>2.086538461538465</v>
       </c>
       <c r="AV27">
-        <v>-2.002566593762078</v>
+        <v>-2.53302000773081</v>
       </c>
       <c r="AW27">
-        <v>-0.1974784783275606</v>
+        <v>-0.09335529928610656</v>
       </c>
       <c r="AX27">
-        <v>0.1369038351394853</v>
+        <v>0.2385350834548695</v>
       </c>
       <c r="AY27">
-        <v>-0.3611744938063911</v>
+        <v>-0.1258741258741259</v>
       </c>
       <c r="AZ27">
-        <v>-0.9205042828614668</v>
+        <v>-0.8421052631578961</v>
       </c>
       <c r="BA27">
-        <v>-0.9249448081133708</v>
+        <v>-0.85</v>
       </c>
       <c r="BB27">
-        <v>-0.4184699182336886</v>
+        <v>-0.3915264457692196</v>
       </c>
       <c r="BC27">
-        <v>-0.506316917536512</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="BD27">
-        <v>-0.4584474316910275</v>
+        <v>-0.3125</v>
       </c>
       <c r="BE27">
-        <v>-0.1998112649223341</v>
+        <v>0.1437640998609263</v>
       </c>
       <c r="BF27">
-        <v>-1.218382096863608</v>
+        <v>-1.387546591695358</v>
       </c>
       <c r="BG27">
-        <v>-0.2044225917691604</v>
+        <v>-0.3832449974409721</v>
       </c>
       <c r="BH27">
-        <v>-0.2426007176884632</v>
+        <v>-0.1666666666666669</v>
       </c>
       <c r="BI27">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ27">
-        <v>-1.128492161198563</v>
+        <v>-0.9960668633234996</v>
       </c>
       <c r="BK27">
-        <v>-0.3549130061743446</v>
+        <v>-0.2811399462421041</v>
       </c>
       <c r="BL27">
-        <v>66.14022967282359</v>
+        <v>78.50000000000001</v>
       </c>
       <c r="BM27">
-        <v>-1.705955191450214</v>
+        <v>-1.666666666666665</v>
       </c>
       <c r="BN27">
-        <v>-0.6681736892856269</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BO27">
         <v>1</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="BR27">
-        <v>-0.5144831177088713</v>
+        <v>-0.5</v>
       </c>
       <c r="BS27">
-        <v>-2.319987779112535</v>
+        <v>-1.913445250046375</v>
       </c>
       <c r="BT27">
-        <v>0.7333186196519531</v>
+        <v>0.7066650631807899</v>
       </c>
       <c r="BU27">
         <v>0</v>
@@ -7046,16 +7046,16 @@
         <v>1</v>
       </c>
       <c r="BW27">
-        <v>-0.4961329575062503</v>
+        <v>-0.4504266094812248</v>
       </c>
       <c r="BX27">
-        <v>-0.3591876333495578</v>
+        <v>-0.4539303336667238</v>
       </c>
       <c r="BY27">
-        <v>29.5669512157857</v>
+        <v>34.14333683105981</v>
       </c>
       <c r="BZ27">
-        <v>2.029163680325063</v>
+        <v>2.794125124722194</v>
       </c>
       <c r="CA27">
         <v>1</v>
@@ -7069,25 +7069,25 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0.6019634788776801</v>
+        <v>0.84</v>
       </c>
       <c r="D28">
-        <v>-0.4760034660664378</v>
+        <v>-0.7567567567567572</v>
       </c>
       <c r="E28">
-        <v>-0.7687632595484567</v>
+        <v>-0.8</v>
       </c>
       <c r="F28">
-        <v>-0.7330558127690976</v>
+        <v>-0.5913292226105635</v>
       </c>
       <c r="G28">
-        <v>-0.9266203097235365</v>
+        <v>-0.9454545454545458</v>
       </c>
       <c r="H28">
-        <v>0.4698252350456979</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="I28">
-        <v>-0.09302752216630022</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -7111,16 +7111,16 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>0.1111111111111111</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="S28">
-        <v>0.4925882437478113</v>
+        <v>0.7796610169491526</v>
       </c>
       <c r="T28">
-        <v>0.3942998706265178</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -7177,88 +7177,88 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>-0.425680714617138</v>
+        <v>-0.3492063492063492</v>
       </c>
       <c r="AN28">
-        <v>0.05532090697369222</v>
+        <v>0.1307901907356945</v>
       </c>
       <c r="AO28">
-        <v>0.3237327040277365</v>
+        <v>0.4221073435859428</v>
       </c>
       <c r="AP28">
-        <v>-0.06310528074078096</v>
+        <v>0.01923076923076883</v>
       </c>
       <c r="AQ28">
-        <v>-1.266988445700817</v>
+        <v>-0.9776119402985077</v>
       </c>
       <c r="AR28">
-        <v>-0.9530965514240651</v>
+        <v>-0.72</v>
       </c>
       <c r="AS28">
-        <v>0.8925375244610835</v>
+        <v>1.772051536174431</v>
       </c>
       <c r="AT28">
-        <v>-1.553101801257818</v>
+        <v>-1.473170731707314</v>
       </c>
       <c r="AU28">
-        <v>-1.298908254576542</v>
+        <v>-1.612179487179489</v>
       </c>
       <c r="AV28">
-        <v>0.1492920847279778</v>
+        <v>0.02119685973906988</v>
       </c>
       <c r="AW28">
-        <v>-0.5150316346729154</v>
+        <v>-0.528281164195497</v>
       </c>
       <c r="AX28">
-        <v>-0.3985295141113682</v>
+        <v>-0.4530870199319397</v>
       </c>
       <c r="AY28">
-        <v>-1.126905393284028</v>
+        <v>-0.8111888111888114</v>
       </c>
       <c r="AZ28">
-        <v>-0.7364034262891724</v>
+        <v>-0.6315789473684211</v>
       </c>
       <c r="BA28">
-        <v>-0.7398759129716352</v>
+        <v>-0.65</v>
       </c>
       <c r="BB28">
-        <v>-0.3643691738960899</v>
+        <v>-0.3333098892659583</v>
       </c>
       <c r="BC28">
-        <v>-0.781696313028448</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="BD28">
-        <v>-0.732835161935758</v>
+        <v>-0.6458333333333334</v>
       </c>
       <c r="BE28">
-        <v>-0.6258605459754926</v>
+        <v>-0.4310299629106344</v>
       </c>
       <c r="BF28">
-        <v>-0.3206268675956864</v>
+        <v>-0.3875465916953585</v>
       </c>
       <c r="BG28">
-        <v>0.6452687582199401</v>
+        <v>0.6916410842335435</v>
       </c>
       <c r="BH28">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI28">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ28">
-        <v>-0.766343578249876</v>
+        <v>-0.6479842674532935</v>
       </c>
       <c r="BK28">
-        <v>-0.1552744402012754</v>
+        <v>-0.07404502773778937</v>
       </c>
       <c r="BL28">
-        <v>-0.6339319137970318</v>
+        <v>-0.5000000000000006</v>
       </c>
       <c r="BM28">
-        <v>-0.6823820765800862</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BN28">
-        <v>-1.336347378571252</v>
+        <v>-1.333333333333332</v>
       </c>
       <c r="BO28">
         <v>1</v>
@@ -7270,13 +7270,13 @@
         <v>0</v>
       </c>
       <c r="BR28">
-        <v>-0.01448311770887134</v>
+        <v>0</v>
       </c>
       <c r="BS28">
-        <v>-0.8484292303633131</v>
+        <v>-0.6655461739291738</v>
       </c>
       <c r="BT28">
-        <v>-0.2363783500450165</v>
+        <v>-0.2355550210602633</v>
       </c>
       <c r="BU28">
         <v>1</v>
@@ -7285,16 +7285,16 @@
         <v>1</v>
       </c>
       <c r="BW28">
-        <v>3.606103743357175</v>
+        <v>3.551580964548068</v>
       </c>
       <c r="BX28">
-        <v>1.610628613083083</v>
+        <v>2.727074361236466</v>
       </c>
       <c r="BY28">
-        <v>1.866428021319805</v>
+        <v>2.217838405036726</v>
       </c>
       <c r="BZ28">
-        <v>-0.3720742573628955</v>
+        <v>-0.2191682254606356</v>
       </c>
       <c r="CA28">
         <v>0</v>
@@ -7308,25 +7308,25 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-0.09166613370937347</v>
+        <v>0.12</v>
       </c>
       <c r="D29">
-        <v>0.9520069321328757</v>
+        <v>0.8648648648648654</v>
       </c>
       <c r="E29">
-        <v>1.076268563367839</v>
+        <v>0.7157894736842105</v>
       </c>
       <c r="F29">
-        <v>0.6873913575852477</v>
+        <v>0.5275041784946494</v>
       </c>
       <c r="G29">
-        <v>1.03480682561567</v>
+        <v>0.8363636363636365</v>
       </c>
       <c r="H29">
-        <v>-0.5705020711269189</v>
+        <v>-0.5645161290322581</v>
       </c>
       <c r="I29">
-        <v>-0.04954926129673501</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -7350,16 +7350,16 @@
         <v>2</v>
       </c>
       <c r="Q29">
-        <v>0.4222222222222222</v>
+        <v>0.8676470588235294</v>
       </c>
       <c r="R29">
-        <v>0.3127262900247837</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="S29">
-        <v>-0.07777709111807547</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="T29">
-        <v>-0.1516537963948145</v>
+        <v>0.02272727272727264</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -7416,88 +7416,88 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>-0.425680714617138</v>
+        <v>-0.3492063492063492</v>
       </c>
       <c r="AN29">
-        <v>0.1682895205517806</v>
+        <v>0.2343324250681197</v>
       </c>
       <c r="AO29">
-        <v>0.3764634008262301</v>
+        <v>0.4765820517571493</v>
       </c>
       <c r="AP29">
-        <v>-0.4937279717923577</v>
+        <v>-0.3269230769230778</v>
       </c>
       <c r="AQ29">
-        <v>-0.5003217790341501</v>
+        <v>-0.2910447761194031</v>
       </c>
       <c r="AR29">
-        <v>0.4611757506890637</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="AS29">
-        <v>-0.07906954611581475</v>
+        <v>0.2180376610505455</v>
       </c>
       <c r="AT29">
-        <v>0.3337625847520831</v>
+        <v>0.3219512195121958</v>
       </c>
       <c r="AU29">
-        <v>0.785005606890075</v>
+        <v>1.157051282051284</v>
       </c>
       <c r="AV29">
-        <v>-0.6627300580984583</v>
+        <v>-0.9426585619476772</v>
       </c>
       <c r="AW29">
-        <v>-0.08360840711281216</v>
+        <v>0.06260296540362442</v>
       </c>
       <c r="AX29">
-        <v>-0.376449788369065</v>
+        <v>-0.4245665208232053</v>
       </c>
       <c r="AY29">
-        <v>0.9827613705829313</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="AZ29">
-        <v>3.682017131445867</v>
+        <v>4.42105263157895</v>
       </c>
       <c r="BA29">
-        <v>5.151483915706946</v>
+        <v>5.716666666666667</v>
       </c>
       <c r="BB29">
-        <v>4.636640509307938</v>
+        <v>5.048160668307631</v>
       </c>
       <c r="BC29">
-        <v>1.696718246398979</v>
+        <v>2.434782608695651</v>
       </c>
       <c r="BD29">
-        <v>4.549128645275304</v>
+        <v>5.770833333333333</v>
       </c>
       <c r="BE29">
-        <v>3.946576141813145</v>
+        <v>5.737762187244048</v>
       </c>
       <c r="BF29">
-        <v>2.052011952612393</v>
+        <v>2.255310551161784</v>
       </c>
       <c r="BG29">
-        <v>-1.442280414575944</v>
+        <v>-1.949173784222194</v>
       </c>
       <c r="BH29">
-        <v>-0.9683771830545406</v>
+        <v>-0.8333333333333338</v>
       </c>
       <c r="BI29">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ29">
-        <v>3.008595040622028</v>
+        <v>2.980334316617501</v>
       </c>
       <c r="BK29">
-        <v>2.037052775021501</v>
+        <v>2.200163984726258</v>
       </c>
       <c r="BL29">
-        <v>1.69048510345875</v>
+        <v>2.25</v>
       </c>
       <c r="BM29">
-        <v>0.3411910382900431</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BN29">
-        <v>1.336347378571252</v>
+        <v>1.333333333333332</v>
       </c>
       <c r="BO29">
         <v>1</v>
@@ -7509,13 +7509,13 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>0.9855168822911287</v>
+        <v>1</v>
       </c>
       <c r="BS29">
-        <v>1.260804689510571</v>
+        <v>1.123109168505481</v>
       </c>
       <c r="BT29">
-        <v>-0.8424389561056226</v>
+        <v>-0.8244425737109217</v>
       </c>
       <c r="BU29">
         <v>0</v>
@@ -7524,16 +7524,16 @@
         <v>1</v>
       </c>
       <c r="BW29">
-        <v>-0.3292597754025393</v>
+        <v>-0.2876306063786104</v>
       </c>
       <c r="BX29">
-        <v>0.2584058068977834</v>
+        <v>0.5434051470036479</v>
       </c>
       <c r="BY29">
-        <v>-0.1647919374921389</v>
+        <v>-0.123189926547744</v>
       </c>
       <c r="BZ29">
-        <v>4.432253353457547</v>
+        <v>5.809742202184901</v>
       </c>
       <c r="CA29">
         <v>1</v>
@@ -7547,25 +7547,25 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.2166136941070948</v>
+        <v>0.44</v>
       </c>
       <c r="D30">
-        <v>0.4760034660664378</v>
+        <v>0.3243243243243245</v>
       </c>
       <c r="E30">
-        <v>0.6662614916086625</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="F30">
-        <v>0.5306082941385115</v>
+        <v>0.4040119911237898</v>
       </c>
       <c r="G30">
-        <v>0.5544573230836192</v>
+        <v>0.3999999999999997</v>
       </c>
       <c r="H30">
-        <v>0.268471562883256</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="I30">
-        <v>-0.3538970873836915</v>
+        <v>-0.1212121212121212</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -7589,16 +7589,16 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0.2</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="R30">
-        <v>0.1042420966749279</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="S30">
-        <v>0.9592507904562642</v>
+        <v>1.389830508474576</v>
       </c>
       <c r="T30">
-        <v>1.000915056205776</v>
+        <v>1.75</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -7655,88 +7655,88 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>-0.425680714617138</v>
+        <v>-0.3492063492063492</v>
       </c>
       <c r="AN30">
-        <v>-0.08143057262083533</v>
+        <v>0.005449591280653835</v>
       </c>
       <c r="AO30">
-        <v>-0.7534801019986285</v>
+        <v>-0.6907331233401273</v>
       </c>
       <c r="AP30">
-        <v>-0.1109522464131784</v>
+        <v>-0.01923076923076968</v>
       </c>
       <c r="AQ30">
-        <v>3.166344887632517</v>
+        <v>2.992537313432836</v>
       </c>
       <c r="AR30">
-        <v>2.244388653353444</v>
+        <v>2.053333333333333</v>
       </c>
       <c r="AS30">
-        <v>-0.4929939868972997</v>
+        <v>-0.4440039643211102</v>
       </c>
       <c r="AT30">
-        <v>2.241136366262091</v>
+        <v>2.136585365853656</v>
       </c>
       <c r="AU30">
-        <v>4.721287345215908</v>
+        <v>6.387820512820522</v>
       </c>
       <c r="AV30">
-        <v>-2.327375450892653</v>
+        <v>-2.918562176405509</v>
       </c>
       <c r="AW30">
-        <v>-0.260026827304676</v>
+        <v>-0.1790225151015925</v>
       </c>
       <c r="AX30">
-        <v>-0.1355800529984842</v>
+        <v>-0.1134338032733755</v>
       </c>
       <c r="AY30">
-        <v>3.451852842367965</v>
+        <v>3.286713286713288</v>
       </c>
       <c r="AZ30">
-        <v>0.1841008565722944</v>
+        <v>0.4210526315789481</v>
       </c>
       <c r="BA30">
-        <v>0.3088478261648662</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="BB30">
-        <v>0.0357054606872607</v>
+        <v>0.09720114814977884</v>
       </c>
       <c r="BC30">
-        <v>-0.2309375220445753</v>
+        <v>0</v>
       </c>
       <c r="BD30">
-        <v>0.5705065567267117</v>
+        <v>0.9375</v>
       </c>
       <c r="BE30">
-        <v>0.370780148314427</v>
+        <v>0.9135636774736465</v>
       </c>
       <c r="BF30">
-        <v>-0.5771283616722355</v>
+        <v>-0.6732608774096442</v>
       </c>
       <c r="BG30">
-        <v>-0.7685412552161226</v>
+        <v>-1.096872716211733</v>
       </c>
       <c r="BH30">
-        <v>-0.4240448340299827</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BI30">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ30">
-        <v>-0.3632742514651798</v>
+        <v>-0.2605703048180923</v>
       </c>
       <c r="BK30">
-        <v>-0.5212784778185687</v>
+        <v>-0.4537190449956996</v>
       </c>
       <c r="BL30">
-        <v>-0.2113106379323439</v>
+        <v>0</v>
       </c>
       <c r="BM30">
-        <v>-0.3411910382900431</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN30">
-        <v>-0.3340868446428135</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO30">
         <v>1</v>
@@ -7748,13 +7748,13 @@
         <v>0</v>
       </c>
       <c r="BR30">
-        <v>0.4855168822911287</v>
+        <v>0.5</v>
       </c>
       <c r="BS30">
-        <v>0.6231293183859085</v>
+        <v>0.5823529021880272</v>
       </c>
       <c r="BT30">
-        <v>-0.5192066328732994</v>
+        <v>-0.5103692122972372</v>
       </c>
       <c r="BU30">
         <v>1</v>
@@ -7763,16 +7763,16 @@
         <v>1</v>
       </c>
       <c r="BW30">
-        <v>-0.1485428539763231</v>
+        <v>-0.1113291052607567</v>
       </c>
       <c r="BX30">
-        <v>0.2571591903241897</v>
+        <v>0.5413920185301027</v>
       </c>
       <c r="BY30">
-        <v>-0.1802696332786934</v>
+        <v>-0.1410283315844701</v>
       </c>
       <c r="BZ30">
-        <v>-0.5216018945082995</v>
+        <v>-0.4068092033108484</v>
       </c>
       <c r="CA30">
         <v>0</v>
@@ -7786,25 +7786,25 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0.2166136941070948</v>
+        <v>0.44</v>
       </c>
       <c r="D31">
-        <v>-0.5712041592797253</v>
+        <v>-0.8648648648648654</v>
       </c>
       <c r="E31">
-        <v>-0.2050035358795885</v>
+        <v>-0.3368421052631579</v>
       </c>
       <c r="F31">
-        <v>0.1198431835214675</v>
+        <v>0.08046759231846146</v>
       </c>
       <c r="G31">
-        <v>-0.4062416819804812</v>
+        <v>-0.4727272727272725</v>
       </c>
       <c r="H31">
-        <v>0.167794726802035</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="I31">
-        <v>0.5156681300076128</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -7828,16 +7828,16 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0.08888888888888889</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="S31">
-        <v>0.1296284851967925</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="T31">
-        <v>0.03033075927896305</v>
+        <v>0.2954545454545456</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -7894,88 +7894,88 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>105.0069186817556</v>
+        <v>97.93650793650794</v>
       </c>
       <c r="AN31">
-        <v>0.09099520599835195</v>
+        <v>0.1634877384196184</v>
       </c>
       <c r="AO31">
-        <v>0.3538645307697328</v>
+        <v>0.4532357482552036</v>
       </c>
       <c r="AP31">
-        <v>0.2239765132936024</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="AQ31">
-        <v>-1.40032177903415</v>
+        <v>-1.097014925373134</v>
       </c>
       <c r="AR31">
-        <v>-0.5841559508728141</v>
+        <v>-0.4</v>
       </c>
       <c r="AS31">
-        <v>-0.02454057786915215</v>
+        <v>0.3052527254707634</v>
       </c>
       <c r="AT31">
-        <v>0.4363095622526211</v>
+        <v>0.4195121951219518</v>
       </c>
       <c r="AU31">
-        <v>-1.033595147213894</v>
+        <v>-1.259615384615386</v>
       </c>
       <c r="AV31">
-        <v>0.1492920847279778</v>
+        <v>0.02119685973906988</v>
       </c>
       <c r="AW31">
-        <v>-0.167006205748966</v>
+        <v>-0.05161998901702365</v>
       </c>
       <c r="AX31">
-        <v>0.5739820424473516</v>
+        <v>0.8031113271754983</v>
       </c>
       <c r="AY31">
-        <v>-0.001749785888316401</v>
+        <v>0.1958041958041959</v>
       </c>
       <c r="AZ31">
-        <v>-0.5523025697168797</v>
+        <v>-0.4210526315789481</v>
       </c>
       <c r="BA31">
-        <v>-0.4622725702590319</v>
+        <v>-0.35</v>
       </c>
       <c r="BB31">
-        <v>-0.3140544372462089</v>
+        <v>-0.2791673678461779</v>
       </c>
       <c r="BC31">
-        <v>-0.2309375220445753</v>
+        <v>0</v>
       </c>
       <c r="BD31">
-        <v>-0.286955100288071</v>
+        <v>-0.1041666666666667</v>
       </c>
       <c r="BE31">
-        <v>-0.2437197604352581</v>
+        <v>0.08452601720609046</v>
       </c>
       <c r="BF31">
-        <v>-0.5771283616722355</v>
+        <v>-0.6732608774096442</v>
       </c>
       <c r="BG31">
-        <v>-0.02203525263418198</v>
+        <v>-0.1525193200378153</v>
       </c>
       <c r="BH31">
-        <v>0.120287514994576</v>
+        <v>0.1666666666666669</v>
       </c>
       <c r="BI31">
         <v>-0.9999999999999994</v>
       </c>
       <c r="BJ31">
-        <v>-0.8809216609907033</v>
+        <v>-0.7581120943952796</v>
       </c>
       <c r="BK31">
-        <v>-0.5508545616664307</v>
+        <v>-0.4843997736630054</v>
       </c>
       <c r="BL31">
-        <v>-0.6339319137970318</v>
+        <v>-0.5000000000000006</v>
       </c>
       <c r="BM31">
-        <v>-1.023573114870128</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN31">
-        <v>-2.004521067856879</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="BO31">
         <v>1</v>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="BR31">
-        <v>-0.5144831177088713</v>
+        <v>-0.5</v>
       </c>
       <c r="BS31">
-        <v>-0.1617019076136763</v>
+        <v>-0.08319327174114673</v>
       </c>
       <c r="BT31">
-        <v>-0.7616308752975418</v>
+        <v>-0.7459242333575005</v>
       </c>
       <c r="BU31">
         <v>0</v>
@@ -8002,16 +8002,16 @@
         <v>1</v>
       </c>
       <c r="BW31">
-        <v>-0.6089407252288263</v>
+        <v>-0.5604781676324317</v>
       </c>
       <c r="BX31">
-        <v>-0.37065650582662</v>
+        <v>-0.4724511156233408</v>
       </c>
       <c r="BY31">
-        <v>16.5201641204136</v>
+        <v>19.10661070304302</v>
       </c>
       <c r="BZ31">
-        <v>-0.2137508768559972</v>
+        <v>-0.02048954303099864</v>
       </c>
       <c r="CA31">
         <v>0</v>
